--- a/ams/cases/wecc/wecc_uced.xlsx
+++ b/ams/cases/wecc/wecc_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/wecc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98D8C98-265A-2F40-B29B-6C50BA0646E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD9973E-446C-CE46-971A-A5BD55C072E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1271">
   <si>
     <t>idx</t>
   </si>
@@ -3860,6 +3860,9 @@
   </si>
   <si>
     <t>0.837, 0, 0</t>
+  </si>
+  <si>
+    <t>ctrl</t>
   </si>
 </sst>
 </file>
@@ -19839,16 +19842,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -19901,55 +19904,58 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -20002,14 +20008,14 @@
         <v>0.6</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>0.3</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
@@ -20026,7 +20032,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>999</v>
@@ -20035,7 +20041,7 @@
         <v>999</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -20049,8 +20055,11 @@
       <c r="AG2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -20103,14 +20112,14 @@
         <v>0.6</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.3</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -20127,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>999</v>
@@ -20136,7 +20145,7 @@
         <v>999</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -20150,8 +20159,11 @@
       <c r="AG3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -20204,14 +20216,14 @@
         <v>0.6</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>0.3</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
         <v>0</v>
       </c>
@@ -20228,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>999</v>
@@ -20237,7 +20249,7 @@
         <v>999</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -20251,8 +20263,11 @@
       <c r="AG4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -20305,14 +20320,14 @@
         <v>0.6</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>0.3</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
@@ -20329,7 +20344,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>999</v>
@@ -20338,7 +20353,7 @@
         <v>999</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -20352,8 +20367,11 @@
       <c r="AG5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -20406,14 +20424,14 @@
         <v>0.6</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>0.3</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
@@ -20430,7 +20448,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>999</v>
@@ -20439,7 +20457,7 @@
         <v>999</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -20453,8 +20471,11 @@
       <c r="AG6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -20507,14 +20528,14 @@
         <v>0.6</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>0.3</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
@@ -20531,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>999</v>
@@ -20540,7 +20561,7 @@
         <v>999</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -20554,8 +20575,11 @@
       <c r="AG7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -20608,14 +20632,14 @@
         <v>0.6</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>0.3</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
@@ -20632,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>999</v>
@@ -20641,7 +20665,7 @@
         <v>999</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -20655,8 +20679,11 @@
       <c r="AG8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -20709,14 +20736,14 @@
         <v>0.6</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>0.3</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
         <v>0</v>
       </c>
@@ -20733,7 +20760,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>999</v>
@@ -20742,7 +20769,7 @@
         <v>999</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -20756,8 +20783,11 @@
       <c r="AG9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -20810,14 +20840,14 @@
         <v>0.6</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>0.3</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
         <v>0</v>
       </c>
@@ -20834,7 +20864,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>999</v>
@@ -20843,7 +20873,7 @@
         <v>999</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -20857,8 +20887,11 @@
       <c r="AG10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -20911,14 +20944,14 @@
         <v>0.6</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0.3</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
         <v>0</v>
       </c>
@@ -20935,7 +20968,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>999</v>
@@ -20944,7 +20977,7 @@
         <v>999</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -20958,8 +20991,11 @@
       <c r="AG11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -21012,14 +21048,14 @@
         <v>0.6</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>0.3</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
         <v>0</v>
       </c>
@@ -21036,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>999</v>
@@ -21045,7 +21081,7 @@
         <v>999</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -21059,8 +21095,11 @@
       <c r="AG12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -21113,14 +21152,14 @@
         <v>0.6</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>0.3</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
         <v>0</v>
       </c>
@@ -21137,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>999</v>
@@ -21146,7 +21185,7 @@
         <v>999</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -21160,8 +21199,11 @@
       <c r="AG13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -21214,14 +21256,14 @@
         <v>0.6</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>0.3</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
         <v>0</v>
       </c>
@@ -21238,7 +21280,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>999</v>
@@ -21247,7 +21289,7 @@
         <v>999</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -21261,8 +21303,11 @@
       <c r="AG14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -21315,14 +21360,14 @@
         <v>0.6</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>0.3</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
         <v>0</v>
       </c>
@@ -21339,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>999</v>
@@ -21348,7 +21393,7 @@
         <v>999</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -21362,8 +21407,11 @@
       <c r="AG15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -21416,14 +21464,14 @@
         <v>0.6</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>0.3</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
         <v>0</v>
       </c>
@@ -21440,7 +21488,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>999</v>
@@ -21449,7 +21497,7 @@
         <v>999</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -21463,8 +21511,11 @@
       <c r="AG16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -21517,14 +21568,14 @@
         <v>0.6</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>0.3</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
         <v>0</v>
       </c>
@@ -21541,7 +21592,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>999</v>
@@ -21550,7 +21601,7 @@
         <v>999</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -21564,8 +21615,11 @@
       <c r="AG17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -21618,14 +21672,14 @@
         <v>0.6</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>0.3</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
       <c r="U18">
         <v>0</v>
       </c>
@@ -21642,7 +21696,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>999</v>
@@ -21651,7 +21705,7 @@
         <v>999</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -21665,8 +21719,11 @@
       <c r="AG18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -21719,14 +21776,14 @@
         <v>0.6</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>0.3</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
         <v>0</v>
       </c>
@@ -21743,7 +21800,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>999</v>
@@ -21752,7 +21809,7 @@
         <v>999</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -21766,8 +21823,11 @@
       <c r="AG19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -21820,14 +21880,14 @@
         <v>0.6</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>0.3</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
         <v>0</v>
       </c>
@@ -21844,7 +21904,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>999</v>
@@ -21853,7 +21913,7 @@
         <v>999</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -21867,8 +21927,11 @@
       <c r="AG20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -21921,14 +21984,14 @@
         <v>0.6</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>0.3</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
         <v>0</v>
       </c>
@@ -21945,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>999</v>
@@ -21954,7 +22017,7 @@
         <v>999</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -21968,8 +22031,11 @@
       <c r="AG21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -22022,14 +22088,14 @@
         <v>0.6</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>0.3</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
         <v>0</v>
       </c>
@@ -22046,7 +22112,7 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>999</v>
@@ -22055,7 +22121,7 @@
         <v>999</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -22069,8 +22135,11 @@
       <c r="AG22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -22123,14 +22192,14 @@
         <v>0.6</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>0.3</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
         <v>0</v>
       </c>
@@ -22147,7 +22216,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>999</v>
@@ -22156,7 +22225,7 @@
         <v>999</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -22170,8 +22239,11 @@
       <c r="AG23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -22224,14 +22296,14 @@
         <v>0.6</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>0.3</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
         <v>0</v>
       </c>
@@ -22248,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>999</v>
@@ -22257,7 +22329,7 @@
         <v>999</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -22271,8 +22343,11 @@
       <c r="AG24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -22325,14 +22400,14 @@
         <v>0.6</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>0.3</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
         <v>0</v>
       </c>
@@ -22349,7 +22424,7 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>999</v>
@@ -22358,7 +22433,7 @@
         <v>999</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -22372,8 +22447,11 @@
       <c r="AG25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -22426,14 +22504,14 @@
         <v>0.6</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>0.3</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
         <v>0</v>
       </c>
@@ -22450,7 +22528,7 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>999</v>
@@ -22459,7 +22537,7 @@
         <v>999</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -22473,8 +22551,11 @@
       <c r="AG26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -22527,14 +22608,14 @@
         <v>0.6</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>0.3</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
         <v>0</v>
       </c>
@@ -22551,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>999</v>
@@ -22560,7 +22641,7 @@
         <v>999</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -22574,8 +22655,11 @@
       <c r="AG27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -22628,14 +22712,14 @@
         <v>0.6</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>0.3</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
       <c r="U28">
         <v>0</v>
       </c>
@@ -22652,7 +22736,7 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>999</v>
@@ -22661,7 +22745,7 @@
         <v>999</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -22675,8 +22759,11 @@
       <c r="AG28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -22729,14 +22816,14 @@
         <v>0.6</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>0.3</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
         <v>0</v>
       </c>
@@ -22753,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>999</v>
@@ -22762,7 +22849,7 @@
         <v>999</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -22774,6 +22861,9 @@
         <v>0</v>
       </c>
       <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
         <v>0</v>
       </c>
     </row>
@@ -22785,16 +22875,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -22847,58 +22937,61 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -22951,14 +23044,14 @@
         <v>0.6</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>0.3</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
@@ -22978,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>999</v>
@@ -22987,7 +23080,7 @@
         <v>999</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -22999,6 +23092,9 @@
         <v>0</v>
       </c>
       <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>0</v>
       </c>
     </row>

--- a/ams/cases/wecc/wecc_uced.xlsx
+++ b/ams/cases/wecc/wecc_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/wecc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD9973E-446C-CE46-971A-A5BD55C072E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12507089-C8D2-0A46-94B6-DB4B546BF5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -24,13 +24,12 @@
     <sheet name="GCost" sheetId="8" r:id="rId9"/>
     <sheet name="EDTSlot" sheetId="10" r:id="rId10"/>
     <sheet name="UCTSlot" sheetId="11" r:id="rId11"/>
-    <sheet name="DCost" sheetId="12" r:id="rId12"/>
-    <sheet name="SFR" sheetId="13" r:id="rId13"/>
-    <sheet name="SFRCost" sheetId="14" r:id="rId14"/>
-    <sheet name="SR" sheetId="15" r:id="rId15"/>
-    <sheet name="SRCost" sheetId="16" r:id="rId16"/>
-    <sheet name="NSR" sheetId="17" r:id="rId17"/>
-    <sheet name="NSRCost" sheetId="18" r:id="rId18"/>
+    <sheet name="SFR" sheetId="13" r:id="rId12"/>
+    <sheet name="SFRCost" sheetId="14" r:id="rId13"/>
+    <sheet name="SR" sheetId="15" r:id="rId14"/>
+    <sheet name="SRCost" sheetId="16" r:id="rId15"/>
+    <sheet name="NSR" sheetId="17" r:id="rId16"/>
+    <sheet name="NSRCost" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1167">
   <si>
     <t>idx</t>
   </si>
@@ -3068,318 +3067,6 @@
   </si>
   <si>
     <t>UCT24</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>Dcost_1</t>
-  </si>
-  <si>
-    <t>Dcost_2</t>
-  </si>
-  <si>
-    <t>Dcost_3</t>
-  </si>
-  <si>
-    <t>Dcost_4</t>
-  </si>
-  <si>
-    <t>Dcost_5</t>
-  </si>
-  <si>
-    <t>Dcost_6</t>
-  </si>
-  <si>
-    <t>Dcost_7</t>
-  </si>
-  <si>
-    <t>Dcost_8</t>
-  </si>
-  <si>
-    <t>Dcost_9</t>
-  </si>
-  <si>
-    <t>Dcost_10</t>
-  </si>
-  <si>
-    <t>Dcost_11</t>
-  </si>
-  <si>
-    <t>Dcost_12</t>
-  </si>
-  <si>
-    <t>Dcost_13</t>
-  </si>
-  <si>
-    <t>Dcost_14</t>
-  </si>
-  <si>
-    <t>Dcost_15</t>
-  </si>
-  <si>
-    <t>Dcost_16</t>
-  </si>
-  <si>
-    <t>Dcost_17</t>
-  </si>
-  <si>
-    <t>Dcost_18</t>
-  </si>
-  <si>
-    <t>Dcost_19</t>
-  </si>
-  <si>
-    <t>Dcost_20</t>
-  </si>
-  <si>
-    <t>Dcost_21</t>
-  </si>
-  <si>
-    <t>Dcost_22</t>
-  </si>
-  <si>
-    <t>Dcost_23</t>
-  </si>
-  <si>
-    <t>Dcost_24</t>
-  </si>
-  <si>
-    <t>Dcost_25</t>
-  </si>
-  <si>
-    <t>Dcost_26</t>
-  </si>
-  <si>
-    <t>Dcost_27</t>
-  </si>
-  <si>
-    <t>Dcost_28</t>
-  </si>
-  <si>
-    <t>Dcost_29</t>
-  </si>
-  <si>
-    <t>Dcost_30</t>
-  </si>
-  <si>
-    <t>Dcost_31</t>
-  </si>
-  <si>
-    <t>Dcost_32</t>
-  </si>
-  <si>
-    <t>Dcost_33</t>
-  </si>
-  <si>
-    <t>Dcost_34</t>
-  </si>
-  <si>
-    <t>Dcost_35</t>
-  </si>
-  <si>
-    <t>Dcost_36</t>
-  </si>
-  <si>
-    <t>Dcost_37</t>
-  </si>
-  <si>
-    <t>Dcost_38</t>
-  </si>
-  <si>
-    <t>Dcost_39</t>
-  </si>
-  <si>
-    <t>Dcost_40</t>
-  </si>
-  <si>
-    <t>Dcost_41</t>
-  </si>
-  <si>
-    <t>Dcost_42</t>
-  </si>
-  <si>
-    <t>Dcost_43</t>
-  </si>
-  <si>
-    <t>Dcost_44</t>
-  </si>
-  <si>
-    <t>Dcost_45</t>
-  </si>
-  <si>
-    <t>Dcost_46</t>
-  </si>
-  <si>
-    <t>Dcost_47</t>
-  </si>
-  <si>
-    <t>Dcost_48</t>
-  </si>
-  <si>
-    <t>Dcost_49</t>
-  </si>
-  <si>
-    <t>Dcost_50</t>
-  </si>
-  <si>
-    <t>Dcost_51</t>
-  </si>
-  <si>
-    <t>Dcost_52</t>
-  </si>
-  <si>
-    <t>Dcost_53</t>
-  </si>
-  <si>
-    <t>Dcost_54</t>
-  </si>
-  <si>
-    <t>Dcost_55</t>
-  </si>
-  <si>
-    <t>Dcost_56</t>
-  </si>
-  <si>
-    <t>Dcost_57</t>
-  </si>
-  <si>
-    <t>Dcost_58</t>
-  </si>
-  <si>
-    <t>Dcost_59</t>
-  </si>
-  <si>
-    <t>Dcost_60</t>
-  </si>
-  <si>
-    <t>Dcost_61</t>
-  </si>
-  <si>
-    <t>Dcost_62</t>
-  </si>
-  <si>
-    <t>Dcost_63</t>
-  </si>
-  <si>
-    <t>Dcost_64</t>
-  </si>
-  <si>
-    <t>Dcost_65</t>
-  </si>
-  <si>
-    <t>Dcost_66</t>
-  </si>
-  <si>
-    <t>Dcost_67</t>
-  </si>
-  <si>
-    <t>Dcost_68</t>
-  </si>
-  <si>
-    <t>Dcost_69</t>
-  </si>
-  <si>
-    <t>Dcost_70</t>
-  </si>
-  <si>
-    <t>Dcost_71</t>
-  </si>
-  <si>
-    <t>Dcost_72</t>
-  </si>
-  <si>
-    <t>Dcost_73</t>
-  </si>
-  <si>
-    <t>Dcost_74</t>
-  </si>
-  <si>
-    <t>Dcost_75</t>
-  </si>
-  <si>
-    <t>Dcost_76</t>
-  </si>
-  <si>
-    <t>Dcost_77</t>
-  </si>
-  <si>
-    <t>Dcost_78</t>
-  </si>
-  <si>
-    <t>Dcost_79</t>
-  </si>
-  <si>
-    <t>Dcost_80</t>
-  </si>
-  <si>
-    <t>Dcost_81</t>
-  </si>
-  <si>
-    <t>Dcost_82</t>
-  </si>
-  <si>
-    <t>Dcost_83</t>
-  </si>
-  <si>
-    <t>Dcost_84</t>
-  </si>
-  <si>
-    <t>Dcost_85</t>
-  </si>
-  <si>
-    <t>Dcost_86</t>
-  </si>
-  <si>
-    <t>Dcost_87</t>
-  </si>
-  <si>
-    <t>Dcost_88</t>
-  </si>
-  <si>
-    <t>Dcost_89</t>
-  </si>
-  <si>
-    <t>Dcost_90</t>
-  </si>
-  <si>
-    <t>Dcost_91</t>
-  </si>
-  <si>
-    <t>Dcost_92</t>
-  </si>
-  <si>
-    <t>Dcost_93</t>
-  </si>
-  <si>
-    <t>Dcost_94</t>
-  </si>
-  <si>
-    <t>Dcost_95</t>
-  </si>
-  <si>
-    <t>Dcost_96</t>
-  </si>
-  <si>
-    <t>Dcost_97</t>
-  </si>
-  <si>
-    <t>Dcost_98</t>
-  </si>
-  <si>
-    <t>Dcost_99</t>
-  </si>
-  <si>
-    <t>Dcost_100</t>
-  </si>
-  <si>
-    <t>Dcost_101</t>
-  </si>
-  <si>
-    <t>Dcost_102</t>
   </si>
   <si>
     <t>du</t>
@@ -3930,7 +3617,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3979,22 +3666,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4018,12 +3694,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4378,7 +4048,7 @@
         <v>923</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1239</v>
+        <v>1135</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -4439,7 +4109,7 @@
         <v>958</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1246</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4453,7 +4123,7 @@
         <v>959</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1247</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4467,7 +4137,7 @@
         <v>960</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1248</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4481,7 +4151,7 @@
         <v>961</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1249</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4495,7 +4165,7 @@
         <v>962</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1250</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4509,7 +4179,7 @@
         <v>963</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1251</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4523,7 +4193,7 @@
         <v>964</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1252</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4537,7 +4207,7 @@
         <v>965</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1253</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4551,7 +4221,7 @@
         <v>966</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1254</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4565,7 +4235,7 @@
         <v>967</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1255</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4579,7 +4249,7 @@
         <v>968</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1256</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4593,7 +4263,7 @@
         <v>969</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1257</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4607,7 +4277,7 @@
         <v>970</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1258</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4621,7 +4291,7 @@
         <v>971</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1259</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4635,7 +4305,7 @@
         <v>972</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1260</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4649,7 +4319,7 @@
         <v>973</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1261</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4663,7 +4333,7 @@
         <v>974</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1262</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4677,7 +4347,7 @@
         <v>975</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1263</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4691,7 +4361,7 @@
         <v>976</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1264</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4705,7 +4375,7 @@
         <v>977</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1265</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4719,7 +4389,7 @@
         <v>978</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1266</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4733,7 +4403,7 @@
         <v>979</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1267</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4747,7 +4417,7 @@
         <v>980</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1268</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4761,7 +4431,7 @@
         <v>981</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1269</v>
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +4477,7 @@
         <v>982</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1246</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4821,7 +4491,7 @@
         <v>983</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1247</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4835,7 +4505,7 @@
         <v>984</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1248</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4849,7 +4519,7 @@
         <v>985</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1249</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4863,7 +4533,7 @@
         <v>986</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1250</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4877,7 +4547,7 @@
         <v>987</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1251</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4891,7 +4561,7 @@
         <v>988</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1252</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4905,7 +4575,7 @@
         <v>989</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1253</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4919,7 +4589,7 @@
         <v>990</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1254</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4933,7 +4603,7 @@
         <v>991</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1255</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4947,7 +4617,7 @@
         <v>992</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1256</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4961,7 +4631,7 @@
         <v>993</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1257</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4975,7 +4645,7 @@
         <v>994</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1258</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4989,7 +4659,7 @@
         <v>995</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1259</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5003,7 +4673,7 @@
         <v>996</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1260</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5017,7 +4687,7 @@
         <v>997</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1261</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5031,7 +4701,7 @@
         <v>998</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1262</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5045,7 +4715,7 @@
         <v>999</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1263</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5059,7 +4729,7 @@
         <v>1000</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1264</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5073,7 +4743,7 @@
         <v>1001</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1265</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5087,7 +4757,7 @@
         <v>1002</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1266</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5101,7 +4771,7 @@
         <v>1003</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1267</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5115,7 +4785,7 @@
         <v>1004</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1268</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5129,7 +4799,7 @@
         <v>1005</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1269</v>
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
@@ -5138,16 +4808,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE577A3E-376B-6044-879E-E0A6A2A5534E}">
-  <dimension ref="A1:F103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186F18F-12EC-6F4B-A764-409E6D489D0B}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -5163,2048 +4833,80 @@
       <c r="E1" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="G1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>1008</v>
       </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="B3" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1010</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="D3" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>1010</v>
       </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E24" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>27</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E31" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E32" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E34" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>33</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E35" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E36" t="s">
-        <v>205</v>
-      </c>
-      <c r="F36" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E38" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C39" s="12">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E39" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C40" s="12">
-        <v>1</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F40" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E41" t="s">
-        <v>210</v>
-      </c>
-      <c r="F41" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C42" s="12">
-        <v>1</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E42" t="s">
-        <v>211</v>
-      </c>
-      <c r="F42" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
-        <v>41</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C43" s="12">
-        <v>1</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
-        <v>42</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C44" s="12">
-        <v>1</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E44" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
-        <v>43</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C45" s="12">
-        <v>1</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
-        <v>44</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C46" s="12">
-        <v>1</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E46" t="s">
-        <v>215</v>
-      </c>
-      <c r="F46" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
-        <v>45</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C47" s="12">
-        <v>1</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E47" t="s">
-        <v>216</v>
-      </c>
-      <c r="F47" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E48" t="s">
-        <v>217</v>
-      </c>
-      <c r="F48" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
-        <v>47</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C49" s="12">
-        <v>1</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
-        <v>48</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E50" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
-        <v>49</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C51" s="12">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E51" t="s">
-        <v>220</v>
-      </c>
-      <c r="F51" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
-        <v>50</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C52" s="12">
-        <v>1</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E52" t="s">
-        <v>221</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
-        <v>51</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C53" s="12">
-        <v>1</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E53" t="s">
-        <v>222</v>
-      </c>
-      <c r="F53" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
-        <v>52</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C54" s="12">
-        <v>1</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F54" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
-        <v>53</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C55" s="12">
-        <v>1</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E55" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
-        <v>54</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C56" s="12">
-        <v>1</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E56" t="s">
-        <v>225</v>
-      </c>
-      <c r="F56" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
-        <v>55</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C57" s="12">
-        <v>1</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E57" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
-        <v>56</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C58" s="12">
-        <v>1</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E58" t="s">
-        <v>227</v>
-      </c>
-      <c r="F58" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
-        <v>57</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C59" s="12">
-        <v>1</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F59" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
-        <v>58</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C60" s="12">
-        <v>1</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E60" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="10">
-        <v>59</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C61" s="12">
-        <v>1</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E61" t="s">
-        <v>230</v>
-      </c>
-      <c r="F61" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="10">
-        <v>60</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C62" s="12">
-        <v>1</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F62" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="10">
-        <v>61</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C63" s="12">
-        <v>1</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E63" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
-        <v>62</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C64" s="12">
-        <v>1</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E64" t="s">
-        <v>233</v>
-      </c>
-      <c r="F64" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="10">
-        <v>63</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C65" s="12">
-        <v>1</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E65" t="s">
-        <v>234</v>
-      </c>
-      <c r="F65" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="10">
-        <v>64</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C66" s="12">
-        <v>1</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E66" t="s">
-        <v>235</v>
-      </c>
-      <c r="F66" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="10">
-        <v>65</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C67" s="12">
-        <v>1</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E67" t="s">
-        <v>236</v>
-      </c>
-      <c r="F67" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="10">
-        <v>66</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C68" s="12">
-        <v>1</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E68" t="s">
-        <v>237</v>
-      </c>
-      <c r="F68" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
-        <v>67</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C69" s="12">
-        <v>1</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E69" t="s">
-        <v>238</v>
-      </c>
-      <c r="F69" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="10">
-        <v>68</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C70" s="12">
-        <v>1</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E70" t="s">
-        <v>239</v>
-      </c>
-      <c r="F70" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="10">
-        <v>69</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C71" s="12">
-        <v>1</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E71" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="10">
-        <v>70</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C72" s="12">
-        <v>1</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E72" t="s">
-        <v>241</v>
-      </c>
-      <c r="F72" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="10">
-        <v>71</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C73" s="12">
-        <v>1</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E73" t="s">
-        <v>242</v>
-      </c>
-      <c r="F73" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="10">
-        <v>72</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C74" s="12">
-        <v>1</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E74" t="s">
-        <v>243</v>
-      </c>
-      <c r="F74" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="10">
-        <v>73</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C75" s="12">
-        <v>1</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E75" t="s">
-        <v>244</v>
-      </c>
-      <c r="F75" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="10">
-        <v>74</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C76" s="12">
-        <v>1</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E76" t="s">
-        <v>245</v>
-      </c>
-      <c r="F76" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="10">
-        <v>75</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C77" s="12">
-        <v>1</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E77" t="s">
-        <v>246</v>
-      </c>
-      <c r="F77" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="10">
-        <v>76</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C78" s="12">
-        <v>1</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E78" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="10">
-        <v>77</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C79" s="12">
-        <v>1</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E79" t="s">
-        <v>248</v>
-      </c>
-      <c r="F79" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="10">
-        <v>78</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C80" s="12">
-        <v>1</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E80" t="s">
-        <v>249</v>
-      </c>
-      <c r="F80" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="10">
-        <v>79</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C81" s="12">
-        <v>1</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E81" t="s">
-        <v>250</v>
-      </c>
-      <c r="F81" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="10">
-        <v>80</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C82" s="12">
-        <v>1</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E82" t="s">
-        <v>251</v>
-      </c>
-      <c r="F82" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="10">
-        <v>81</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C83" s="12">
-        <v>1</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E83" t="s">
-        <v>252</v>
-      </c>
-      <c r="F83" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="10">
-        <v>82</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C84" s="12">
-        <v>1</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E84" t="s">
-        <v>253</v>
-      </c>
-      <c r="F84" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="10">
-        <v>83</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C85" s="12">
-        <v>1</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E85" t="s">
-        <v>254</v>
-      </c>
-      <c r="F85" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="10">
-        <v>84</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C86" s="12">
-        <v>1</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E86" t="s">
-        <v>255</v>
-      </c>
-      <c r="F86" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="10">
-        <v>85</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C87" s="12">
-        <v>1</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E87" t="s">
-        <v>256</v>
-      </c>
-      <c r="F87" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="10">
-        <v>86</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C88" s="12">
-        <v>1</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E88" t="s">
-        <v>257</v>
-      </c>
-      <c r="F88" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="10">
-        <v>87</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C89" s="12">
-        <v>1</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E89" t="s">
-        <v>258</v>
-      </c>
-      <c r="F89" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="10">
-        <v>88</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C90" s="12">
-        <v>1</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E90" t="s">
-        <v>259</v>
-      </c>
-      <c r="F90" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="10">
-        <v>89</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C91" s="12">
-        <v>1</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E91" t="s">
-        <v>260</v>
-      </c>
-      <c r="F91" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="10">
-        <v>90</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C92" s="12">
-        <v>1</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E92" t="s">
-        <v>261</v>
-      </c>
-      <c r="F92" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="10">
-        <v>91</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C93" s="12">
-        <v>1</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E93" t="s">
-        <v>262</v>
-      </c>
-      <c r="F93" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="10">
-        <v>92</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C94" s="12">
-        <v>1</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E94" t="s">
-        <v>263</v>
-      </c>
-      <c r="F94" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
-        <v>93</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C95" s="12">
-        <v>1</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E95" t="s">
-        <v>264</v>
-      </c>
-      <c r="F95" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="10">
-        <v>94</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C96" s="12">
-        <v>1</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E96" t="s">
-        <v>265</v>
-      </c>
-      <c r="F96" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="10">
-        <v>95</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C97" s="12">
-        <v>1</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E97" t="s">
-        <v>266</v>
-      </c>
-      <c r="F97" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="10">
-        <v>96</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C98" s="12">
-        <v>1</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F98" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="10">
-        <v>97</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C99" s="12">
-        <v>1</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E99" t="s">
-        <v>268</v>
-      </c>
-      <c r="F99" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="10">
-        <v>98</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C100" s="12">
-        <v>1</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E100" t="s">
-        <v>269</v>
-      </c>
-      <c r="F100" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="10">
-        <v>99</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C101" s="12">
-        <v>1</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E101" t="s">
-        <v>270</v>
-      </c>
-      <c r="F101" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="10">
-        <v>100</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C102" s="12">
-        <v>1</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E102" t="s">
-        <v>271</v>
-      </c>
-      <c r="F102" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="10">
-        <v>101</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C103" s="12">
-        <v>1</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E103" t="s">
-        <v>272</v>
-      </c>
-      <c r="F103" s="12">
-        <v>1000</v>
+      <c r="B4" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -7214,114 +4916,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186F18F-12EC-6F4B-A764-409E6D489D0B}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDD8DA4-A9E0-5D45-8125-C41E764F6492}">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -7338,507 +4932,507 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>881</v>
       </c>
       <c r="D1" t="s">
-        <v>1116</v>
+        <v>1012</v>
       </c>
       <c r="E1" t="s">
-        <v>1117</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="B2" t="s">
-        <v>1118</v>
+        <v>1014</v>
       </c>
       <c r="C2" t="s">
         <v>928</v>
       </c>
       <c r="D2" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E2" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1114</v>
+        <v>1010</v>
       </c>
       <c r="B3" t="s">
-        <v>1119</v>
+        <v>1015</v>
       </c>
       <c r="C3" t="s">
         <v>929</v>
       </c>
       <c r="D3" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E3" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1120</v>
+        <v>1016</v>
       </c>
       <c r="B4" t="s">
-        <v>1121</v>
+        <v>1017</v>
       </c>
       <c r="C4" t="s">
         <v>930</v>
       </c>
       <c r="D4" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E4" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1122</v>
+        <v>1018</v>
       </c>
       <c r="B5" t="s">
-        <v>1123</v>
+        <v>1019</v>
       </c>
       <c r="C5" t="s">
         <v>931</v>
       </c>
       <c r="D5" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E5" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1124</v>
+        <v>1020</v>
       </c>
       <c r="B6" t="s">
-        <v>1125</v>
+        <v>1021</v>
       </c>
       <c r="C6" t="s">
         <v>932</v>
       </c>
       <c r="D6" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E6" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1126</v>
+        <v>1022</v>
       </c>
       <c r="B7" t="s">
-        <v>1127</v>
+        <v>1023</v>
       </c>
       <c r="C7" t="s">
         <v>933</v>
       </c>
       <c r="D7" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E7" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1128</v>
+        <v>1024</v>
       </c>
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1025</v>
       </c>
       <c r="C8" t="s">
         <v>934</v>
       </c>
       <c r="D8" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E8" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1130</v>
+        <v>1026</v>
       </c>
       <c r="B9" t="s">
-        <v>1131</v>
+        <v>1027</v>
       </c>
       <c r="C9" t="s">
         <v>935</v>
       </c>
       <c r="D9" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E9" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1132</v>
+        <v>1028</v>
       </c>
       <c r="B10" t="s">
-        <v>1133</v>
+        <v>1029</v>
       </c>
       <c r="C10" t="s">
         <v>936</v>
       </c>
       <c r="D10" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E10" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1134</v>
+        <v>1030</v>
       </c>
       <c r="B11" t="s">
-        <v>1135</v>
+        <v>1031</v>
       </c>
       <c r="C11" t="s">
         <v>937</v>
       </c>
       <c r="D11" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E11" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1136</v>
+        <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>1137</v>
+        <v>1033</v>
       </c>
       <c r="C12" t="s">
         <v>938</v>
       </c>
       <c r="D12" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E12" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1138</v>
+        <v>1034</v>
       </c>
       <c r="B13" t="s">
-        <v>1139</v>
+        <v>1035</v>
       </c>
       <c r="C13" t="s">
         <v>939</v>
       </c>
       <c r="D13" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E13" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1140</v>
+        <v>1036</v>
       </c>
       <c r="B14" t="s">
-        <v>1141</v>
+        <v>1037</v>
       </c>
       <c r="C14" t="s">
         <v>940</v>
       </c>
       <c r="D14" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E14" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1142</v>
+        <v>1038</v>
       </c>
       <c r="B15" t="s">
-        <v>1143</v>
+        <v>1039</v>
       </c>
       <c r="C15" t="s">
         <v>941</v>
       </c>
       <c r="D15" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E15" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1144</v>
+        <v>1040</v>
       </c>
       <c r="B16" t="s">
-        <v>1145</v>
+        <v>1041</v>
       </c>
       <c r="C16" t="s">
         <v>942</v>
       </c>
       <c r="D16" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E16" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1146</v>
+        <v>1042</v>
       </c>
       <c r="B17" t="s">
-        <v>1147</v>
+        <v>1043</v>
       </c>
       <c r="C17" t="s">
         <v>943</v>
       </c>
       <c r="D17" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E17" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1148</v>
+        <v>1044</v>
       </c>
       <c r="B18" t="s">
-        <v>1149</v>
+        <v>1045</v>
       </c>
       <c r="C18" t="s">
         <v>944</v>
       </c>
       <c r="D18" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E18" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1150</v>
+        <v>1046</v>
       </c>
       <c r="B19" t="s">
-        <v>1151</v>
+        <v>1047</v>
       </c>
       <c r="C19" t="s">
         <v>945</v>
       </c>
       <c r="D19" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E19" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1152</v>
+        <v>1048</v>
       </c>
       <c r="B20" t="s">
-        <v>1153</v>
+        <v>1049</v>
       </c>
       <c r="C20" t="s">
         <v>946</v>
       </c>
       <c r="D20" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E20" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1154</v>
+        <v>1050</v>
       </c>
       <c r="B21" t="s">
-        <v>1155</v>
+        <v>1051</v>
       </c>
       <c r="C21" t="s">
         <v>947</v>
       </c>
       <c r="D21" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E21" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1156</v>
+        <v>1052</v>
       </c>
       <c r="B22" t="s">
-        <v>1157</v>
+        <v>1053</v>
       </c>
       <c r="C22" t="s">
         <v>948</v>
       </c>
       <c r="D22" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E22" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1158</v>
+        <v>1054</v>
       </c>
       <c r="B23" t="s">
-        <v>1159</v>
+        <v>1055</v>
       </c>
       <c r="C23" t="s">
         <v>949</v>
       </c>
       <c r="D23" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E23" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1160</v>
+        <v>1056</v>
       </c>
       <c r="B24" t="s">
-        <v>1161</v>
+        <v>1057</v>
       </c>
       <c r="C24" t="s">
         <v>950</v>
       </c>
       <c r="D24" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E24" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1162</v>
+        <v>1058</v>
       </c>
       <c r="B25" t="s">
-        <v>1163</v>
+        <v>1059</v>
       </c>
       <c r="C25" t="s">
         <v>951</v>
       </c>
       <c r="D25" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E25" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1164</v>
+        <v>1060</v>
       </c>
       <c r="B26" t="s">
-        <v>1165</v>
+        <v>1061</v>
       </c>
       <c r="C26" t="s">
         <v>952</v>
       </c>
       <c r="D26" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E26" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1166</v>
+        <v>1062</v>
       </c>
       <c r="B27" t="s">
-        <v>1167</v>
+        <v>1063</v>
       </c>
       <c r="C27" t="s">
         <v>953</v>
       </c>
       <c r="D27" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E27" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1168</v>
+        <v>1064</v>
       </c>
       <c r="B28" t="s">
-        <v>1169</v>
+        <v>1065</v>
       </c>
       <c r="C28" t="s">
         <v>954</v>
       </c>
       <c r="D28" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E28" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1170</v>
+        <v>1066</v>
       </c>
       <c r="B29" t="s">
-        <v>1171</v>
+        <v>1067</v>
       </c>
       <c r="C29" t="s">
         <v>955</v>
       </c>
       <c r="D29" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E29" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1172</v>
+        <v>1068</v>
       </c>
       <c r="B30" t="s">
-        <v>1173</v>
+        <v>1069</v>
       </c>
       <c r="C30" t="s">
         <v>956</v>
       </c>
       <c r="D30" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="E30" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -7846,7 +5440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EF9F85-5A8E-1249-B9F0-7234C911A625}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -7870,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1174</v>
+        <v>1070</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -7881,18 +5475,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1175</v>
+        <v>1071</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1175</v>
+        <v>1071</v>
       </c>
       <c r="E2" s="8">
         <v>0.03</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7901,18 +5495,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1176</v>
+        <v>1072</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1176</v>
+        <v>1072</v>
       </c>
       <c r="E3" s="8">
         <v>0.03</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>927</v>
       </c>
     </row>
@@ -7921,19 +5515,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1244</v>
+        <v>1140</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1244</v>
+        <v>1140</v>
       </c>
       <c r="E4" s="8">
         <v>0.03</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>1242</v>
+      <c r="F4" s="10" t="s">
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -7942,7 +5536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB38A29-B98B-D544-BC97-A4C3D6A69D76}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -7963,497 +5557,497 @@
         <v>881</v>
       </c>
       <c r="D1" t="s">
-        <v>1177</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="B2" t="s">
-        <v>1178</v>
+        <v>1074</v>
       </c>
       <c r="C2" t="s">
         <v>928</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1114</v>
+        <v>1010</v>
       </c>
       <c r="B3" t="s">
-        <v>1179</v>
+        <v>1075</v>
       </c>
       <c r="C3" t="s">
         <v>929</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1120</v>
+        <v>1016</v>
       </c>
       <c r="B4" t="s">
-        <v>1180</v>
+        <v>1076</v>
       </c>
       <c r="C4" t="s">
         <v>930</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1122</v>
+        <v>1018</v>
       </c>
       <c r="B5" t="s">
-        <v>1181</v>
+        <v>1077</v>
       </c>
       <c r="C5" t="s">
         <v>931</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1124</v>
+        <v>1020</v>
       </c>
       <c r="B6" t="s">
-        <v>1182</v>
+        <v>1078</v>
       </c>
       <c r="C6" t="s">
         <v>932</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1126</v>
+        <v>1022</v>
       </c>
       <c r="B7" t="s">
-        <v>1183</v>
+        <v>1079</v>
       </c>
       <c r="C7" t="s">
         <v>933</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1128</v>
+        <v>1024</v>
       </c>
       <c r="B8" t="s">
-        <v>1184</v>
+        <v>1080</v>
       </c>
       <c r="C8" t="s">
         <v>934</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1130</v>
+        <v>1026</v>
       </c>
       <c r="B9" t="s">
-        <v>1185</v>
+        <v>1081</v>
       </c>
       <c r="C9" t="s">
         <v>935</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1132</v>
+        <v>1028</v>
       </c>
       <c r="B10" t="s">
-        <v>1186</v>
+        <v>1082</v>
       </c>
       <c r="C10" t="s">
         <v>936</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1134</v>
+        <v>1030</v>
       </c>
       <c r="B11" t="s">
-        <v>1187</v>
+        <v>1083</v>
       </c>
       <c r="C11" t="s">
         <v>937</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1136</v>
+        <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>1188</v>
+        <v>1084</v>
       </c>
       <c r="C12" t="s">
         <v>938</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1138</v>
+        <v>1034</v>
       </c>
       <c r="B13" t="s">
-        <v>1189</v>
+        <v>1085</v>
       </c>
       <c r="C13" t="s">
         <v>939</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1140</v>
+        <v>1036</v>
       </c>
       <c r="B14" t="s">
-        <v>1190</v>
+        <v>1086</v>
       </c>
       <c r="C14" t="s">
         <v>940</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1142</v>
+        <v>1038</v>
       </c>
       <c r="B15" t="s">
-        <v>1191</v>
+        <v>1087</v>
       </c>
       <c r="C15" t="s">
         <v>941</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1144</v>
+        <v>1040</v>
       </c>
       <c r="B16" t="s">
-        <v>1192</v>
+        <v>1088</v>
       </c>
       <c r="C16" t="s">
         <v>942</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1146</v>
+        <v>1042</v>
       </c>
       <c r="B17" t="s">
-        <v>1193</v>
+        <v>1089</v>
       </c>
       <c r="C17" t="s">
         <v>943</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1148</v>
+        <v>1044</v>
       </c>
       <c r="B18" t="s">
-        <v>1194</v>
+        <v>1090</v>
       </c>
       <c r="C18" t="s">
         <v>944</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1150</v>
+        <v>1046</v>
       </c>
       <c r="B19" t="s">
-        <v>1195</v>
+        <v>1091</v>
       </c>
       <c r="C19" t="s">
         <v>945</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1152</v>
+        <v>1048</v>
       </c>
       <c r="B20" t="s">
-        <v>1196</v>
+        <v>1092</v>
       </c>
       <c r="C20" t="s">
         <v>946</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1154</v>
+        <v>1050</v>
       </c>
       <c r="B21" t="s">
-        <v>1197</v>
+        <v>1093</v>
       </c>
       <c r="C21" t="s">
         <v>947</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1156</v>
+        <v>1052</v>
       </c>
       <c r="B22" t="s">
-        <v>1198</v>
+        <v>1094</v>
       </c>
       <c r="C22" t="s">
         <v>948</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1158</v>
+        <v>1054</v>
       </c>
       <c r="B23" t="s">
-        <v>1199</v>
+        <v>1095</v>
       </c>
       <c r="C23" t="s">
         <v>949</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1160</v>
+        <v>1056</v>
       </c>
       <c r="B24" t="s">
-        <v>1200</v>
+        <v>1096</v>
       </c>
       <c r="C24" t="s">
         <v>950</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1162</v>
+        <v>1058</v>
       </c>
       <c r="B25" t="s">
-        <v>1201</v>
+        <v>1097</v>
       </c>
       <c r="C25" t="s">
         <v>951</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1164</v>
+        <v>1060</v>
       </c>
       <c r="B26" t="s">
-        <v>1202</v>
+        <v>1098</v>
       </c>
       <c r="C26" t="s">
         <v>952</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1166</v>
+        <v>1062</v>
       </c>
       <c r="B27" t="s">
-        <v>1203</v>
+        <v>1099</v>
       </c>
       <c r="C27" t="s">
         <v>953</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1168</v>
+        <v>1064</v>
       </c>
       <c r="B28" t="s">
-        <v>1204</v>
+        <v>1100</v>
       </c>
       <c r="C28" t="s">
         <v>954</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1170</v>
+        <v>1066</v>
       </c>
       <c r="B29" t="s">
-        <v>1205</v>
+        <v>1101</v>
       </c>
       <c r="C29" t="s">
         <v>955</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1172</v>
+        <v>1068</v>
       </c>
       <c r="B30" t="s">
-        <v>1206</v>
+        <v>1102</v>
       </c>
       <c r="C30" t="s">
         <v>956</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831E3704-B795-2045-82FE-9FBF4077B24C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -8477,7 +6071,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1174</v>
+        <v>1070</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>11</v>
@@ -8488,13 +6082,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1207</v>
+        <v>1103</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1207</v>
+        <v>1103</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
@@ -8508,13 +6102,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1208</v>
+        <v>1104</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1208</v>
+        <v>1104</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -8528,19 +6122,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1245</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1245</v>
+        <v>1141</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>1242</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -8549,7 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6DFDF-13C8-0E45-8899-0962CFE97EA1}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -8570,490 +6164,490 @@
         <v>881</v>
       </c>
       <c r="D1" t="s">
-        <v>1209</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1112</v>
+        <v>1008</v>
       </c>
       <c r="B2" t="s">
-        <v>1210</v>
+        <v>1106</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1114</v>
+        <v>1010</v>
       </c>
       <c r="B3" t="s">
-        <v>1211</v>
+        <v>1107</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1120</v>
+        <v>1016</v>
       </c>
       <c r="B4" t="s">
-        <v>1212</v>
+        <v>1108</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1122</v>
+        <v>1018</v>
       </c>
       <c r="B5" t="s">
-        <v>1213</v>
+        <v>1109</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1124</v>
+        <v>1020</v>
       </c>
       <c r="B6" t="s">
-        <v>1214</v>
+        <v>1110</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1126</v>
+        <v>1022</v>
       </c>
       <c r="B7" t="s">
-        <v>1215</v>
+        <v>1111</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1128</v>
+        <v>1024</v>
       </c>
       <c r="B8" t="s">
-        <v>1216</v>
+        <v>1112</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1130</v>
+        <v>1026</v>
       </c>
       <c r="B9" t="s">
-        <v>1217</v>
+        <v>1113</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1132</v>
+        <v>1028</v>
       </c>
       <c r="B10" t="s">
-        <v>1218</v>
+        <v>1114</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1134</v>
+        <v>1030</v>
       </c>
       <c r="B11" t="s">
-        <v>1219</v>
+        <v>1115</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1136</v>
+        <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>1220</v>
+        <v>1116</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1138</v>
+        <v>1034</v>
       </c>
       <c r="B13" t="s">
-        <v>1221</v>
+        <v>1117</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1140</v>
+        <v>1036</v>
       </c>
       <c r="B14" t="s">
-        <v>1222</v>
+        <v>1118</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1142</v>
+        <v>1038</v>
       </c>
       <c r="B15" t="s">
-        <v>1223</v>
+        <v>1119</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1144</v>
+        <v>1040</v>
       </c>
       <c r="B16" t="s">
-        <v>1224</v>
+        <v>1120</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1146</v>
+        <v>1042</v>
       </c>
       <c r="B17" t="s">
-        <v>1225</v>
+        <v>1121</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1148</v>
+        <v>1044</v>
       </c>
       <c r="B18" t="s">
-        <v>1226</v>
+        <v>1122</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1150</v>
+        <v>1046</v>
       </c>
       <c r="B19" t="s">
-        <v>1227</v>
+        <v>1123</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1152</v>
+        <v>1048</v>
       </c>
       <c r="B20" t="s">
-        <v>1228</v>
+        <v>1124</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1154</v>
+        <v>1050</v>
       </c>
       <c r="B21" t="s">
-        <v>1229</v>
+        <v>1125</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1156</v>
+        <v>1052</v>
       </c>
       <c r="B22" t="s">
-        <v>1230</v>
+        <v>1126</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1158</v>
+        <v>1054</v>
       </c>
       <c r="B23" t="s">
-        <v>1231</v>
+        <v>1127</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1160</v>
+        <v>1056</v>
       </c>
       <c r="B24" t="s">
-        <v>1232</v>
+        <v>1128</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1162</v>
+        <v>1058</v>
       </c>
       <c r="B25" t="s">
-        <v>1233</v>
+        <v>1129</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1164</v>
+        <v>1060</v>
       </c>
       <c r="B26" t="s">
-        <v>1234</v>
+        <v>1130</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1166</v>
+        <v>1062</v>
       </c>
       <c r="B27" t="s">
-        <v>1235</v>
+        <v>1131</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1168</v>
+        <v>1064</v>
       </c>
       <c r="B28" t="s">
-        <v>1236</v>
+        <v>1132</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1170</v>
+        <v>1066</v>
       </c>
       <c r="B29" t="s">
-        <v>1237</v>
+        <v>1133</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1172</v>
+        <v>1068</v>
       </c>
       <c r="B30" t="s">
-        <v>1238</v>
+        <v>1134</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19775,13 +17369,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>1240</v>
+        <v>1136</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>1240</v>
+        <v>1136</v>
       </c>
       <c r="E104">
         <v>165</v>
@@ -19807,13 +17401,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>1241</v>
+        <v>1137</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>1241</v>
+        <v>1137</v>
       </c>
       <c r="E105">
         <v>166</v>
@@ -19904,7 +17498,7 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1270</v>
+        <v>1166</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>279</v>
@@ -22877,7 +20471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
@@ -22937,7 +20531,7 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1270</v>
+        <v>1166</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>279</v>
@@ -45634,13 +43228,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1242</v>
+        <v>1138</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1242</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>

--- a/ams/cases/wecc/wecc_uced.xlsx
+++ b/ams/cases/wecc/wecc_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/wecc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12507089-C8D2-0A46-94B6-DB4B546BF5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD7D86A-6BCF-8F4E-8CBF-EFEE1FCCF6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1267">
   <si>
     <t>idx</t>
   </si>
@@ -3459,12 +3459,6 @@
     <t>Load factor in EDTSlot and UCTSlot sourced from CAISO forcasted hourly load on 2023 May 15</t>
   </si>
   <si>
-    <t>PQ_103</t>
-  </si>
-  <si>
-    <t>PQ_104</t>
-  </si>
-  <si>
     <t>ZONE_3</t>
   </si>
   <si>
@@ -3550,6 +3544,312 @@
   </si>
   <si>
     <t>ctrl</t>
+  </si>
+  <si>
+    <t>PQ 1</t>
+  </si>
+  <si>
+    <t>PQ 2</t>
+  </si>
+  <si>
+    <t>PQ 3</t>
+  </si>
+  <si>
+    <t>PQ 4</t>
+  </si>
+  <si>
+    <t>PQ 5</t>
+  </si>
+  <si>
+    <t>PQ 6</t>
+  </si>
+  <si>
+    <t>PQ 7</t>
+  </si>
+  <si>
+    <t>PQ 8</t>
+  </si>
+  <si>
+    <t>PQ 9</t>
+  </si>
+  <si>
+    <t>PQ 10</t>
+  </si>
+  <si>
+    <t>PQ 11</t>
+  </si>
+  <si>
+    <t>PQ 12</t>
+  </si>
+  <si>
+    <t>PQ 13</t>
+  </si>
+  <si>
+    <t>PQ 14</t>
+  </si>
+  <si>
+    <t>PQ 15</t>
+  </si>
+  <si>
+    <t>PQ 16</t>
+  </si>
+  <si>
+    <t>PQ 17</t>
+  </si>
+  <si>
+    <t>PQ 18</t>
+  </si>
+  <si>
+    <t>PQ 19</t>
+  </si>
+  <si>
+    <t>PQ 20</t>
+  </si>
+  <si>
+    <t>PQ 21</t>
+  </si>
+  <si>
+    <t>PQ 22</t>
+  </si>
+  <si>
+    <t>PQ 23</t>
+  </si>
+  <si>
+    <t>PQ 24</t>
+  </si>
+  <si>
+    <t>PQ 25</t>
+  </si>
+  <si>
+    <t>PQ 26</t>
+  </si>
+  <si>
+    <t>PQ 27</t>
+  </si>
+  <si>
+    <t>PQ 28</t>
+  </si>
+  <si>
+    <t>PQ 29</t>
+  </si>
+  <si>
+    <t>PQ 30</t>
+  </si>
+  <si>
+    <t>PQ 31</t>
+  </si>
+  <si>
+    <t>PQ 32</t>
+  </si>
+  <si>
+    <t>PQ 33</t>
+  </si>
+  <si>
+    <t>PQ 34</t>
+  </si>
+  <si>
+    <t>PQ 35</t>
+  </si>
+  <si>
+    <t>PQ 36</t>
+  </si>
+  <si>
+    <t>PQ 37</t>
+  </si>
+  <si>
+    <t>PQ 38</t>
+  </si>
+  <si>
+    <t>PQ 39</t>
+  </si>
+  <si>
+    <t>PQ 40</t>
+  </si>
+  <si>
+    <t>PQ 41</t>
+  </si>
+  <si>
+    <t>PQ 42</t>
+  </si>
+  <si>
+    <t>PQ 43</t>
+  </si>
+  <si>
+    <t>PQ 44</t>
+  </si>
+  <si>
+    <t>PQ 45</t>
+  </si>
+  <si>
+    <t>PQ 46</t>
+  </si>
+  <si>
+    <t>PQ 47</t>
+  </si>
+  <si>
+    <t>PQ 48</t>
+  </si>
+  <si>
+    <t>PQ 49</t>
+  </si>
+  <si>
+    <t>PQ 50</t>
+  </si>
+  <si>
+    <t>PQ 51</t>
+  </si>
+  <si>
+    <t>PQ 52</t>
+  </si>
+  <si>
+    <t>PQ 53</t>
+  </si>
+  <si>
+    <t>PQ 54</t>
+  </si>
+  <si>
+    <t>PQ 55</t>
+  </si>
+  <si>
+    <t>PQ 56</t>
+  </si>
+  <si>
+    <t>PQ 57</t>
+  </si>
+  <si>
+    <t>PQ 58</t>
+  </si>
+  <si>
+    <t>PQ 59</t>
+  </si>
+  <si>
+    <t>PQ 60</t>
+  </si>
+  <si>
+    <t>PQ 61</t>
+  </si>
+  <si>
+    <t>PQ 62</t>
+  </si>
+  <si>
+    <t>PQ 63</t>
+  </si>
+  <si>
+    <t>PQ 64</t>
+  </si>
+  <si>
+    <t>PQ 65</t>
+  </si>
+  <si>
+    <t>PQ 66</t>
+  </si>
+  <si>
+    <t>PQ 67</t>
+  </si>
+  <si>
+    <t>PQ 68</t>
+  </si>
+  <si>
+    <t>PQ 69</t>
+  </si>
+  <si>
+    <t>PQ 70</t>
+  </si>
+  <si>
+    <t>PQ 71</t>
+  </si>
+  <si>
+    <t>PQ 72</t>
+  </si>
+  <si>
+    <t>PQ 73</t>
+  </si>
+  <si>
+    <t>PQ 74</t>
+  </si>
+  <si>
+    <t>PQ 75</t>
+  </si>
+  <si>
+    <t>PQ 76</t>
+  </si>
+  <si>
+    <t>PQ 77</t>
+  </si>
+  <si>
+    <t>PQ 78</t>
+  </si>
+  <si>
+    <t>PQ 79</t>
+  </si>
+  <si>
+    <t>PQ 80</t>
+  </si>
+  <si>
+    <t>PQ 81</t>
+  </si>
+  <si>
+    <t>PQ 82</t>
+  </si>
+  <si>
+    <t>PQ 83</t>
+  </si>
+  <si>
+    <t>PQ 84</t>
+  </si>
+  <si>
+    <t>PQ 85</t>
+  </si>
+  <si>
+    <t>PQ 86</t>
+  </si>
+  <si>
+    <t>PQ 87</t>
+  </si>
+  <si>
+    <t>PQ 88</t>
+  </si>
+  <si>
+    <t>PQ 89</t>
+  </si>
+  <si>
+    <t>PQ 90</t>
+  </si>
+  <si>
+    <t>PQ 91</t>
+  </si>
+  <si>
+    <t>PQ 92</t>
+  </si>
+  <si>
+    <t>PQ 93</t>
+  </si>
+  <si>
+    <t>PQ 94</t>
+  </si>
+  <si>
+    <t>PQ 95</t>
+  </si>
+  <si>
+    <t>PQ 96</t>
+  </si>
+  <si>
+    <t>PQ 97</t>
+  </si>
+  <si>
+    <t>PQ 98</t>
+  </si>
+  <si>
+    <t>PQ 99</t>
+  </si>
+  <si>
+    <t>PQ 100</t>
+  </si>
+  <si>
+    <t>PQ 101</t>
+  </si>
+  <si>
+    <t>PQ 102</t>
   </si>
 </sst>
 </file>
@@ -4109,7 +4409,7 @@
         <v>958</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4123,7 +4423,7 @@
         <v>959</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4137,7 +4437,7 @@
         <v>960</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4151,7 +4451,7 @@
         <v>961</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4165,7 +4465,7 @@
         <v>962</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4179,7 +4479,7 @@
         <v>963</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4193,7 +4493,7 @@
         <v>964</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4207,7 +4507,7 @@
         <v>965</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4221,7 +4521,7 @@
         <v>966</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4235,7 +4535,7 @@
         <v>967</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4249,7 +4549,7 @@
         <v>968</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4263,7 +4563,7 @@
         <v>969</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4277,7 +4577,7 @@
         <v>970</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4291,7 +4591,7 @@
         <v>971</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4305,7 +4605,7 @@
         <v>972</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4319,7 +4619,7 @@
         <v>973</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4333,7 +4633,7 @@
         <v>974</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4347,7 +4647,7 @@
         <v>975</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4361,7 +4661,7 @@
         <v>976</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4375,7 +4675,7 @@
         <v>977</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4389,7 +4689,7 @@
         <v>978</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4403,7 +4703,7 @@
         <v>979</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4417,7 +4717,7 @@
         <v>980</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4431,7 +4731,7 @@
         <v>981</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4777,7 @@
         <v>982</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4491,7 +4791,7 @@
         <v>983</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4505,7 +4805,7 @@
         <v>984</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4519,7 +4819,7 @@
         <v>985</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4533,7 +4833,7 @@
         <v>986</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4547,7 +4847,7 @@
         <v>987</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4561,7 +4861,7 @@
         <v>988</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4575,7 +4875,7 @@
         <v>989</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4589,7 +4889,7 @@
         <v>990</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4603,7 +4903,7 @@
         <v>991</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4617,7 +4917,7 @@
         <v>992</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4631,7 +4931,7 @@
         <v>993</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4645,7 +4945,7 @@
         <v>994</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4659,7 +4959,7 @@
         <v>995</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4673,7 +4973,7 @@
         <v>996</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4687,7 +4987,7 @@
         <v>997</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4701,7 +5001,7 @@
         <v>998</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4715,7 +5015,7 @@
         <v>999</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4729,7 +5029,7 @@
         <v>1000</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4743,7 +5043,7 @@
         <v>1001</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4757,7 +5057,7 @@
         <v>1002</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4771,7 +5071,7 @@
         <v>1003</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4785,7 +5085,7 @@
         <v>1004</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4799,7 +5099,7 @@
         <v>1005</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -4811,7 +5111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186F18F-12EC-6F4B-A764-409E6D489D0B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -4891,13 +5191,13 @@
         <v>1010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>1010</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E4" s="10">
         <v>0.02</v>
@@ -4906,7 +5206,7 @@
         <v>0.02</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -5515,19 +5815,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E4" s="8">
         <v>0.03</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -6122,19 +6422,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -14056,11 +14356,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14111,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>1165</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -14143,7 +14443,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>1166</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -14175,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>1167</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -14207,7 +14507,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>1168</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -14239,7 +14539,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>1169</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -14271,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>1170</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -14303,7 +14603,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>1171</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -14335,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>1172</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -14367,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>1173</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -14399,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>1174</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -14431,7 +14731,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>1175</v>
       </c>
       <c r="E12">
         <v>14</v>
@@ -14463,7 +14763,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>1176</v>
       </c>
       <c r="E13">
         <v>15</v>
@@ -14495,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>1177</v>
       </c>
       <c r="E14">
         <v>16</v>
@@ -14527,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>1178</v>
       </c>
       <c r="E15">
         <v>17</v>
@@ -14559,7 +14859,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>1179</v>
       </c>
       <c r="E16">
         <v>18</v>
@@ -14591,19 +14891,19 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>1180</v>
       </c>
       <c r="E17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>1.2</v>
@@ -14623,19 +14923,19 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>1181</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>1.2</v>
@@ -14655,19 +14955,19 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>1182</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1.2</v>
@@ -14687,19 +14987,19 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>1183</v>
       </c>
       <c r="E20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>-18.62</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="I20">
         <v>1.2</v>
@@ -14719,13 +15019,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>1184</v>
       </c>
       <c r="E21">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -14751,19 +15051,19 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>1185</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="G22">
-        <v>-18.62</v>
+        <v>1.35</v>
       </c>
       <c r="H22">
-        <v>9.7100000000000009</v>
+        <v>0.27</v>
       </c>
       <c r="I22">
         <v>1.2</v>
@@ -14783,10 +15083,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>1186</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>18</v>
@@ -14815,19 +15115,19 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>1187</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F24">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="G24">
-        <v>1.35</v>
+        <v>20.53</v>
       </c>
       <c r="H24">
-        <v>0.27</v>
+        <v>9.0709999999999997</v>
       </c>
       <c r="I24">
         <v>1.2</v>
@@ -14847,13 +15147,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>1188</v>
       </c>
       <c r="E25">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -14879,19 +15179,19 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>1189</v>
       </c>
       <c r="E26">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="G26">
-        <v>20.53</v>
+        <v>-0.72799999999999998</v>
       </c>
       <c r="H26">
-        <v>9.0709999999999997</v>
+        <v>-0.17</v>
       </c>
       <c r="I26">
         <v>1.2</v>
@@ -14911,13 +15211,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>1190</v>
       </c>
       <c r="E27">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -14943,19 +15243,19 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>1191</v>
       </c>
       <c r="E28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>230</v>
       </c>
       <c r="G28">
-        <v>-0.72799999999999998</v>
+        <v>1.21</v>
       </c>
       <c r="H28">
-        <v>-0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I28">
         <v>1.2</v>
@@ -14975,19 +15275,19 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>1192</v>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F29">
-        <v>11.5</v>
+        <v>230</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I29">
         <v>1.2</v>
@@ -15007,19 +15307,19 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>1193</v>
       </c>
       <c r="E30">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="G30">
-        <v>1.21</v>
+        <v>2.3719999999999999</v>
       </c>
       <c r="H30">
-        <v>0.25</v>
+        <v>-0.63200000000000001</v>
       </c>
       <c r="I30">
         <v>1.2</v>
@@ -15039,19 +15339,19 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>1194</v>
       </c>
       <c r="E31">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>230</v>
       </c>
       <c r="G31">
-        <v>3.2</v>
+        <v>1.38</v>
       </c>
       <c r="H31">
-        <v>0.65</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I31">
         <v>1.2</v>
@@ -15071,19 +15371,19 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>1195</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F32">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="G32">
-        <v>2.3719999999999999</v>
+        <v>8.0779999999999994</v>
       </c>
       <c r="H32">
-        <v>-0.63200000000000001</v>
+        <v>1.321</v>
       </c>
       <c r="I32">
         <v>1.2</v>
@@ -15103,19 +15403,19 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>1196</v>
       </c>
       <c r="E33">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>230</v>
       </c>
       <c r="G33">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="H33">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="I33">
         <v>1.2</v>
@@ -15135,19 +15435,19 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>1197</v>
       </c>
       <c r="E34">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F34">
         <v>230</v>
       </c>
       <c r="G34">
-        <v>8.0779999999999994</v>
+        <v>1.21</v>
       </c>
       <c r="H34">
-        <v>1.321</v>
+        <v>0.25</v>
       </c>
       <c r="I34">
         <v>1.2</v>
@@ -15167,19 +15467,19 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>1198</v>
       </c>
       <c r="E35">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>230</v>
       </c>
       <c r="G35">
-        <v>1.17</v>
+        <v>8.8770000000000007</v>
       </c>
       <c r="H35">
-        <v>0.24</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="I35">
         <v>1.2</v>
@@ -15199,19 +15499,19 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>1199</v>
       </c>
       <c r="E36">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <v>230</v>
       </c>
       <c r="G36">
-        <v>1.21</v>
+        <v>-27.71</v>
       </c>
       <c r="H36">
-        <v>0.25</v>
+        <v>16.54</v>
       </c>
       <c r="I36">
         <v>1.2</v>
@@ -15231,19 +15531,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>1200</v>
       </c>
       <c r="E37">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>230</v>
       </c>
       <c r="G37">
-        <v>8.8770000000000007</v>
+        <v>4.01</v>
       </c>
       <c r="H37">
-        <v>-6.2E-2</v>
+        <v>0.80599999999999994</v>
       </c>
       <c r="I37">
         <v>1.2</v>
@@ -15263,19 +15563,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>1201</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F38">
         <v>230</v>
       </c>
       <c r="G38">
-        <v>-27.71</v>
+        <v>2.052</v>
       </c>
       <c r="H38">
-        <v>16.54</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I38">
         <v>1.2</v>
@@ -15295,19 +15595,19 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>1202</v>
       </c>
       <c r="E39">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="G39">
-        <v>4.01</v>
+        <v>-1.29</v>
       </c>
       <c r="H39">
-        <v>0.80599999999999994</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="I39">
         <v>1.2</v>
@@ -15327,19 +15627,19 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>1203</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F40">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="G40">
-        <v>2.052</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0.17599999999999999</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>1.2</v>
@@ -15359,19 +15659,19 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>1204</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F41">
-        <v>287</v>
+        <v>500</v>
       </c>
       <c r="G41">
-        <v>-1.29</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>0.32200000000000001</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1.2</v>
@@ -15391,19 +15691,19 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>1205</v>
       </c>
       <c r="E42">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="I42">
         <v>1.2</v>
@@ -15423,19 +15723,19 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>1206</v>
       </c>
       <c r="E43">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="G43">
-        <v>17</v>
+        <v>-0.67500000000000004</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="I43">
         <v>1.2</v>
@@ -15455,19 +15755,19 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>1207</v>
       </c>
       <c r="E44">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F44">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="G44">
-        <v>1.6</v>
+        <v>-0.442</v>
       </c>
       <c r="H44">
-        <v>0.3125</v>
+        <v>0.22</v>
       </c>
       <c r="I44">
         <v>1.2</v>
@@ -15487,19 +15787,19 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>1208</v>
       </c>
       <c r="E45">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F45">
-        <v>230</v>
+        <v>13.8</v>
       </c>
       <c r="G45">
-        <v>-0.67500000000000004</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1.2</v>
@@ -15519,19 +15819,19 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>1209</v>
       </c>
       <c r="E46">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="G46">
-        <v>-0.442</v>
+        <v>31.37</v>
       </c>
       <c r="H46">
-        <v>0.22</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="I46">
         <v>1.2</v>
@@ -15551,19 +15851,19 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>1210</v>
       </c>
       <c r="E47">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F47">
-        <v>13.8</v>
+        <v>500</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>-15.25</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I47">
         <v>1.2</v>
@@ -15583,19 +15883,19 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>1211</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F48">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="G48">
-        <v>31.37</v>
+        <v>25.84</v>
       </c>
       <c r="H48">
-        <v>16.809999999999999</v>
+        <v>3.94</v>
       </c>
       <c r="I48">
         <v>1.2</v>
@@ -15615,19 +15915,19 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>1212</v>
       </c>
       <c r="E49">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F49">
         <v>500</v>
       </c>
       <c r="G49">
-        <v>-15.25</v>
+        <v>32</v>
       </c>
       <c r="H49">
-        <v>-0.5</v>
+        <v>11</v>
       </c>
       <c r="I49">
         <v>1.2</v>
@@ -15647,19 +15947,19 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>1213</v>
       </c>
       <c r="E50">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F50">
-        <v>500</v>
+        <v>13.8</v>
       </c>
       <c r="G50">
-        <v>25.84</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1.2</v>
@@ -15679,19 +15979,19 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>1214</v>
       </c>
       <c r="E51">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <v>1.2</v>
@@ -15711,13 +16011,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>1215</v>
       </c>
       <c r="E52">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F52">
-        <v>13.8</v>
+        <v>20</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -15743,19 +16043,19 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>1216</v>
       </c>
       <c r="E53">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F53">
         <v>500</v>
       </c>
       <c r="G53">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <v>1.2</v>
@@ -15775,19 +16075,19 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>1217</v>
       </c>
       <c r="E54">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F54">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>-0.66599999999999993</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>-0.97</v>
       </c>
       <c r="I54">
         <v>1.2</v>
@@ -15807,19 +16107,19 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>224</v>
+        <v>1218</v>
       </c>
       <c r="E55">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F55">
         <v>500</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>-3.39</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>-1.19</v>
       </c>
       <c r="I55">
         <v>1.2</v>
@@ -15839,19 +16139,19 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>1219</v>
       </c>
       <c r="E56">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F56">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="G56">
-        <v>-0.66599999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="H56">
-        <v>-0.97</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="I56">
         <v>1.2</v>
@@ -15871,19 +16171,19 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>1220</v>
       </c>
       <c r="E57">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F57">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G57">
-        <v>-3.39</v>
+        <v>-0.433</v>
       </c>
       <c r="H57">
-        <v>-1.19</v>
+        <v>0.2</v>
       </c>
       <c r="I57">
         <v>1.2</v>
@@ -15903,19 +16203,19 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>1221</v>
       </c>
       <c r="E58">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F58">
-        <v>345</v>
+        <v>200</v>
       </c>
       <c r="G58">
-        <v>6.1</v>
+        <v>2.1040000000000001</v>
       </c>
       <c r="H58">
-        <v>-4.1399999999999997</v>
+        <v>-0.77</v>
       </c>
       <c r="I58">
         <v>1.2</v>
@@ -15935,19 +16235,19 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>1222</v>
       </c>
       <c r="E59">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F59">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G59">
-        <v>-0.433</v>
+        <v>0.5</v>
       </c>
       <c r="H59">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I59">
         <v>1.2</v>
@@ -15967,19 +16267,19 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>1223</v>
       </c>
       <c r="E60">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F60">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="G60">
-        <v>2.1040000000000001</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>-0.77</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>1.2</v>
@@ -15999,19 +16299,19 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>1224</v>
       </c>
       <c r="E61">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F61">
         <v>500</v>
       </c>
       <c r="G61">
-        <v>0.5</v>
+        <v>3.05</v>
       </c>
       <c r="H61">
-        <v>0.25</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="I61">
         <v>1.2</v>
@@ -16031,19 +16331,19 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>1225</v>
       </c>
       <c r="E62">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F62">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="I62">
         <v>1.2</v>
@@ -16063,19 +16363,19 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>1226</v>
       </c>
       <c r="E63">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F63">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G63">
-        <v>3.05</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="H63">
-        <v>-7.5999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1.2</v>
@@ -16095,19 +16395,19 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>1227</v>
       </c>
       <c r="E64">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F64">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G64">
-        <v>0.27500000000000002</v>
+        <v>2.65</v>
       </c>
       <c r="H64">
-        <v>-1E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I64">
         <v>1.2</v>
@@ -16127,19 +16427,19 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>1228</v>
       </c>
       <c r="E65">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F65">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G65">
-        <v>8.0100000000000005E-2</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>-3.29</v>
       </c>
       <c r="I65">
         <v>1.2</v>
@@ -16159,19 +16459,19 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>1229</v>
       </c>
       <c r="E66">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F66">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G66">
-        <v>2.65</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="H66">
-        <v>0.14000000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I66">
         <v>1.2</v>
@@ -16191,19 +16491,19 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>1230</v>
       </c>
       <c r="E67">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F67">
         <v>500</v>
       </c>
       <c r="G67">
-        <v>0.55600000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="H67">
-        <v>-3.29</v>
+        <v>0.215</v>
       </c>
       <c r="I67">
         <v>1.2</v>
@@ -16223,19 +16523,19 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>1231</v>
       </c>
       <c r="E68">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F68">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G68">
-        <v>7.7759999999999998</v>
+        <v>-1.89</v>
       </c>
       <c r="H68">
-        <v>0.32600000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I68">
         <v>1.2</v>
@@ -16255,19 +16555,19 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>1232</v>
       </c>
       <c r="E69">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F69">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G69">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0.215</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>1.2</v>
@@ -16287,19 +16587,19 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>1233</v>
       </c>
       <c r="E70">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F70">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G70">
-        <v>-1.89</v>
+        <v>1.48</v>
       </c>
       <c r="H70">
-        <v>0.61499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1.2</v>
@@ -16319,19 +16619,19 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>1234</v>
       </c>
       <c r="E71">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>-6.9999999999999993E-3</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="I71">
         <v>1.2</v>
@@ -16351,16 +16651,16 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>1235</v>
       </c>
       <c r="E72">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F72">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G72">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -16383,19 +16683,19 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>242</v>
+        <v>1236</v>
       </c>
       <c r="E73">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F73">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G73">
-        <v>-6.9999999999999993E-3</v>
+        <v>8.84</v>
       </c>
       <c r="H73">
-        <v>1.1850000000000001</v>
+        <v>0.54799999999999993</v>
       </c>
       <c r="I73">
         <v>1.2</v>
@@ -16415,10 +16715,10 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="E74">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F74">
         <v>20</v>
@@ -16447,19 +16747,19 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>244</v>
+        <v>1238</v>
       </c>
       <c r="E75">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F75">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G75">
-        <v>8.84</v>
+        <v>56.61</v>
       </c>
       <c r="H75">
-        <v>0.54799999999999993</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="I75">
         <v>1.2</v>
@@ -16479,19 +16779,19 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>245</v>
+        <v>1239</v>
       </c>
       <c r="E76">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F76">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>8.56</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="I76">
         <v>1.2</v>
@@ -16511,19 +16811,19 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>1240</v>
       </c>
       <c r="E77">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F77">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="G77">
-        <v>56.61</v>
+        <v>1.75</v>
       </c>
       <c r="H77">
-        <v>34.909999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="I77">
         <v>1.2</v>
@@ -16543,19 +16843,19 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>1241</v>
       </c>
       <c r="E78">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F78">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G78">
-        <v>8.56</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>0.19600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1.2</v>
@@ -16575,19 +16875,19 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>1242</v>
       </c>
       <c r="E79">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F79">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="G79">
-        <v>1.75</v>
+        <v>9.0229999999999997</v>
       </c>
       <c r="H79">
-        <v>0.18</v>
+        <v>-0.114</v>
       </c>
       <c r="I79">
         <v>1.2</v>
@@ -16607,10 +16907,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>1243</v>
       </c>
       <c r="E80">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F80">
         <v>20</v>
@@ -16639,19 +16939,19 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>250</v>
+        <v>1244</v>
       </c>
       <c r="E81">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F81">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="G81">
-        <v>9.0229999999999997</v>
+        <v>31.91</v>
       </c>
       <c r="H81">
-        <v>-0.114</v>
+        <v>6.3</v>
       </c>
       <c r="I81">
         <v>1.2</v>
@@ -16671,19 +16971,19 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>251</v>
+        <v>1245</v>
       </c>
       <c r="E82">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F82">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="I82">
         <v>1.2</v>
@@ -16703,19 +17003,19 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>252</v>
+        <v>1246</v>
       </c>
       <c r="E83">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F83">
         <v>230</v>
       </c>
       <c r="G83">
-        <v>31.91</v>
+        <v>3.774</v>
       </c>
       <c r="H83">
-        <v>6.3</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="I83">
         <v>1.2</v>
@@ -16735,19 +17035,19 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>253</v>
+        <v>1247</v>
       </c>
       <c r="E84">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F84">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G84">
-        <v>2.0419999999999998</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>-0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1.2</v>
@@ -16767,19 +17067,19 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>1248</v>
       </c>
       <c r="E85">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F85">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="G85">
-        <v>3.774</v>
+        <v>30.98</v>
       </c>
       <c r="H85">
-        <v>0.64500000000000002</v>
+        <v>11.89</v>
       </c>
       <c r="I85">
         <v>1.2</v>
@@ -16799,13 +17099,13 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>255</v>
+        <v>1249</v>
       </c>
       <c r="E86">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F86">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -16831,19 +17131,19 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>1250</v>
       </c>
       <c r="E87">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F87">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G87">
-        <v>30.98</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>11.89</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1.2</v>
@@ -16863,19 +17163,19 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>257</v>
+        <v>1251</v>
       </c>
       <c r="E88">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F88">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>31.18</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="I88">
         <v>1.2</v>
@@ -16895,19 +17195,19 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>258</v>
+        <v>1252</v>
       </c>
       <c r="E89">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F89">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>12.3</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="I89">
         <v>1.2</v>
@@ -16927,19 +17227,19 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>259</v>
+        <v>1253</v>
       </c>
       <c r="E90">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F90">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="G90">
-        <v>31.18</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="H90">
-        <v>0.78</v>
+        <v>0.41</v>
       </c>
       <c r="I90">
         <v>1.2</v>
@@ -16959,19 +17259,19 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>260</v>
+        <v>1254</v>
       </c>
       <c r="E91">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F91">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="G91">
-        <v>12.3</v>
+        <v>10.66</v>
       </c>
       <c r="H91">
-        <v>0.72799999999999998</v>
+        <v>-0.108</v>
       </c>
       <c r="I91">
         <v>1.2</v>
@@ -16991,19 +17291,19 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>1255</v>
       </c>
       <c r="E92">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F92">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="G92">
-        <v>4.0599999999999996</v>
+        <v>4.577</v>
       </c>
       <c r="H92">
-        <v>0.41</v>
+        <v>0.81700000000000006</v>
       </c>
       <c r="I92">
         <v>1.2</v>
@@ -17023,19 +17323,19 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>1256</v>
       </c>
       <c r="E93">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F93">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="G93">
-        <v>10.66</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="H93">
-        <v>-0.108</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="I93">
         <v>1.2</v>
@@ -17055,19 +17355,19 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>263</v>
+        <v>1257</v>
       </c>
       <c r="E94">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F94">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="G94">
-        <v>4.577</v>
+        <v>1.48</v>
       </c>
       <c r="H94">
-        <v>0.81700000000000006</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="I94">
         <v>1.2</v>
@@ -17087,19 +17387,19 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>264</v>
+        <v>1258</v>
       </c>
       <c r="E95">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F95">
         <v>345</v>
       </c>
       <c r="G95">
-        <v>0.33900000000000002</v>
+        <v>1.161</v>
       </c>
       <c r="H95">
-        <v>0.11899999999999999</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="I95">
         <v>1.2</v>
@@ -17119,19 +17419,19 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>265</v>
+        <v>1259</v>
       </c>
       <c r="E96">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F96">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="G96">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>1.2</v>
@@ -17151,19 +17451,19 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>266</v>
+        <v>1260</v>
       </c>
       <c r="E97">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F97">
         <v>345</v>
       </c>
       <c r="G97">
-        <v>1.161</v>
+        <v>-0.62</v>
       </c>
       <c r="H97">
-        <v>0.38400000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="I97">
         <v>1.2</v>
@@ -17183,19 +17483,19 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>1261</v>
       </c>
       <c r="E98">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F98">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1.2</v>
@@ -17215,19 +17515,19 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>268</v>
+        <v>1262</v>
       </c>
       <c r="E99">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F99">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="G99">
-        <v>-0.62</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>1.2</v>
@@ -17247,19 +17547,19 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>1263</v>
       </c>
       <c r="E100">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F100">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="G100">
-        <v>2.5499999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0.115</v>
       </c>
       <c r="I100">
         <v>1.2</v>
@@ -17279,19 +17579,19 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>270</v>
+        <v>1264</v>
       </c>
       <c r="E101">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F101">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>0.71400000000000008</v>
       </c>
       <c r="I101">
         <v>1.2</v>
@@ -17311,19 +17611,19 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>271</v>
+        <v>1265</v>
       </c>
       <c r="E102">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F102">
         <v>345</v>
       </c>
       <c r="G102">
-        <v>0.316</v>
+        <v>3.79</v>
       </c>
       <c r="H102">
-        <v>0.115</v>
+        <v>-0.43</v>
       </c>
       <c r="I102">
         <v>1.2</v>
@@ -17343,88 +17643,24 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>1266</v>
       </c>
       <c r="E103">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F103">
         <v>345</v>
       </c>
       <c r="G103">
-        <v>1.4119999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="H103">
-        <v>0.71400000000000008</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="I103">
         <v>1.2</v>
       </c>
       <c r="J103">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E104">
-        <v>165</v>
-      </c>
-      <c r="F104">
-        <v>345</v>
-      </c>
-      <c r="G104">
-        <v>3.79</v>
-      </c>
-      <c r="H104">
-        <v>-0.43</v>
-      </c>
-      <c r="I104">
-        <v>1.2</v>
-      </c>
-      <c r="J104">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E105">
-        <v>166</v>
-      </c>
-      <c r="F105">
-        <v>345</v>
-      </c>
-      <c r="G105">
-        <v>1.85</v>
-      </c>
-      <c r="H105">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="I105">
-        <v>1.2</v>
-      </c>
-      <c r="J105">
         <v>0.8</v>
       </c>
     </row>
@@ -17440,7 +17676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17498,7 +17734,7 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>279</v>
@@ -20531,7 +20767,7 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>279</v>
@@ -43228,13 +43464,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>

--- a/ams/cases/wecc/wecc_uced.xlsx
+++ b/ams/cases/wecc/wecc_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/wecc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD7D86A-6BCF-8F4E-8CBF-EFEE1FCCF6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF04935-6D7D-3647-9C36-68F223CCFD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="1040" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1269">
   <si>
     <t>idx</t>
   </si>
@@ -3850,6 +3850,12 @@
   </si>
   <si>
     <t>PQ 102</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -4373,18 +4379,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC52E22A-F484-AB41-97FD-4D4278B36B97}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -4397,8 +4404,11 @@
       <c r="D1" s="8" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" s="7" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -4411,8 +4421,11 @@
       <c r="D2" s="9" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4425,8 +4438,11 @@
       <c r="D3" s="9" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E3" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4439,8 +4455,11 @@
       <c r="D4" s="9" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4453,8 +4472,11 @@
       <c r="D5" s="9" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -4467,8 +4489,11 @@
       <c r="D6" s="9" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4481,8 +4506,11 @@
       <c r="D7" s="9" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4495,8 +4523,11 @@
       <c r="D8" s="9" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -4509,8 +4540,11 @@
       <c r="D9" s="9" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4523,8 +4557,11 @@
       <c r="D10" s="9" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -4537,8 +4574,11 @@
       <c r="D11" s="9" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -4551,8 +4591,11 @@
       <c r="D12" s="9" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -4565,8 +4608,11 @@
       <c r="D13" s="9" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -4579,8 +4625,11 @@
       <c r="D14" s="9" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -4593,8 +4642,11 @@
       <c r="D15" s="9" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -4607,8 +4659,11 @@
       <c r="D16" s="9" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -4621,8 +4676,11 @@
       <c r="D17" s="9" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -4635,8 +4693,11 @@
       <c r="D18" s="9" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -4649,8 +4710,11 @@
       <c r="D19" s="9" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -4663,8 +4727,11 @@
       <c r="D20" s="9" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -4677,8 +4744,11 @@
       <c r="D21" s="9" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -4691,8 +4761,11 @@
       <c r="D22" s="9" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -4705,8 +4778,11 @@
       <c r="D23" s="9" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -4719,8 +4795,11 @@
       <c r="D24" s="9" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -4732,6 +4811,9 @@
       </c>
       <c r="D25" s="9" t="s">
         <v>1163</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1268</v>
       </c>
     </row>
   </sheetData>
@@ -14358,7 +14440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>

--- a/ams/cases/wecc/wecc_uced.xlsx
+++ b/ams/cases/wecc/wecc_uced.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/wecc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF04935-6D7D-3647-9C36-68F223CCFD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90797D85-AC0E-494B-B5D9-2165D1F932A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="1040" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
     <sheet name="Bus" sheetId="1" r:id="rId2"/>
     <sheet name="PQ" sheetId="2" r:id="rId3"/>
-    <sheet name="PV" sheetId="3" r:id="rId4"/>
-    <sheet name="Slack" sheetId="4" r:id="rId5"/>
-    <sheet name="Shunt" sheetId="5" r:id="rId6"/>
-    <sheet name="Line" sheetId="6" r:id="rId7"/>
-    <sheet name="Region" sheetId="7" r:id="rId8"/>
-    <sheet name="GCost" sheetId="8" r:id="rId9"/>
-    <sheet name="EDTSlot" sheetId="10" r:id="rId10"/>
-    <sheet name="UCTSlot" sheetId="11" r:id="rId11"/>
-    <sheet name="SFR" sheetId="13" r:id="rId12"/>
-    <sheet name="SFRCost" sheetId="14" r:id="rId13"/>
-    <sheet name="SR" sheetId="15" r:id="rId14"/>
-    <sheet name="SRCost" sheetId="16" r:id="rId15"/>
-    <sheet name="NSR" sheetId="17" r:id="rId16"/>
-    <sheet name="NSRCost" sheetId="18" r:id="rId17"/>
+    <sheet name="DCost" sheetId="19" r:id="rId4"/>
+    <sheet name="PV" sheetId="3" r:id="rId5"/>
+    <sheet name="Slack" sheetId="4" r:id="rId6"/>
+    <sheet name="Shunt" sheetId="5" r:id="rId7"/>
+    <sheet name="Line" sheetId="6" r:id="rId8"/>
+    <sheet name="Region" sheetId="7" r:id="rId9"/>
+    <sheet name="GCost" sheetId="8" r:id="rId10"/>
+    <sheet name="EDTSlot" sheetId="10" r:id="rId11"/>
+    <sheet name="UCTSlot" sheetId="11" r:id="rId12"/>
+    <sheet name="SFR" sheetId="13" r:id="rId13"/>
+    <sheet name="SFRCost" sheetId="14" r:id="rId14"/>
+    <sheet name="SR" sheetId="15" r:id="rId15"/>
+    <sheet name="SRCost" sheetId="16" r:id="rId16"/>
+    <sheet name="NSR" sheetId="17" r:id="rId17"/>
+    <sheet name="NSRCost" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="1475">
   <si>
     <t>idx</t>
   </si>
@@ -3856,6 +3857,624 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>DCost_1</t>
+  </si>
+  <si>
+    <t>Dcost 1</t>
+  </si>
+  <si>
+    <t>DCost_2</t>
+  </si>
+  <si>
+    <t>Dcost 2</t>
+  </si>
+  <si>
+    <t>DCost_3</t>
+  </si>
+  <si>
+    <t>Dcost 3</t>
+  </si>
+  <si>
+    <t>DCost_4</t>
+  </si>
+  <si>
+    <t>Dcost 4</t>
+  </si>
+  <si>
+    <t>DCost_5</t>
+  </si>
+  <si>
+    <t>Dcost 5</t>
+  </si>
+  <si>
+    <t>DCost_6</t>
+  </si>
+  <si>
+    <t>Dcost 6</t>
+  </si>
+  <si>
+    <t>DCost_7</t>
+  </si>
+  <si>
+    <t>Dcost 7</t>
+  </si>
+  <si>
+    <t>DCost_8</t>
+  </si>
+  <si>
+    <t>Dcost 8</t>
+  </si>
+  <si>
+    <t>DCost_9</t>
+  </si>
+  <si>
+    <t>Dcost 9</t>
+  </si>
+  <si>
+    <t>DCost_10</t>
+  </si>
+  <si>
+    <t>Dcost 10</t>
+  </si>
+  <si>
+    <t>DCost_11</t>
+  </si>
+  <si>
+    <t>Dcost 11</t>
+  </si>
+  <si>
+    <t>DCost_12</t>
+  </si>
+  <si>
+    <t>Dcost 12</t>
+  </si>
+  <si>
+    <t>DCost_13</t>
+  </si>
+  <si>
+    <t>Dcost 13</t>
+  </si>
+  <si>
+    <t>DCost_14</t>
+  </si>
+  <si>
+    <t>Dcost 14</t>
+  </si>
+  <si>
+    <t>DCost_15</t>
+  </si>
+  <si>
+    <t>Dcost 15</t>
+  </si>
+  <si>
+    <t>DCost_16</t>
+  </si>
+  <si>
+    <t>Dcost 16</t>
+  </si>
+  <si>
+    <t>DCost_17</t>
+  </si>
+  <si>
+    <t>Dcost 17</t>
+  </si>
+  <si>
+    <t>DCost_18</t>
+  </si>
+  <si>
+    <t>Dcost 18</t>
+  </si>
+  <si>
+    <t>DCost_19</t>
+  </si>
+  <si>
+    <t>Dcost 19</t>
+  </si>
+  <si>
+    <t>DCost_20</t>
+  </si>
+  <si>
+    <t>Dcost 20</t>
+  </si>
+  <si>
+    <t>DCost_21</t>
+  </si>
+  <si>
+    <t>Dcost 21</t>
+  </si>
+  <si>
+    <t>DCost_22</t>
+  </si>
+  <si>
+    <t>Dcost 22</t>
+  </si>
+  <si>
+    <t>DCost_23</t>
+  </si>
+  <si>
+    <t>Dcost 23</t>
+  </si>
+  <si>
+    <t>DCost_24</t>
+  </si>
+  <si>
+    <t>Dcost 24</t>
+  </si>
+  <si>
+    <t>DCost_25</t>
+  </si>
+  <si>
+    <t>Dcost 25</t>
+  </si>
+  <si>
+    <t>DCost_26</t>
+  </si>
+  <si>
+    <t>Dcost 26</t>
+  </si>
+  <si>
+    <t>DCost_27</t>
+  </si>
+  <si>
+    <t>Dcost 27</t>
+  </si>
+  <si>
+    <t>DCost_28</t>
+  </si>
+  <si>
+    <t>Dcost 28</t>
+  </si>
+  <si>
+    <t>DCost_29</t>
+  </si>
+  <si>
+    <t>Dcost 29</t>
+  </si>
+  <si>
+    <t>DCost_30</t>
+  </si>
+  <si>
+    <t>Dcost 30</t>
+  </si>
+  <si>
+    <t>DCost_31</t>
+  </si>
+  <si>
+    <t>Dcost 31</t>
+  </si>
+  <si>
+    <t>DCost_32</t>
+  </si>
+  <si>
+    <t>Dcost 32</t>
+  </si>
+  <si>
+    <t>DCost_33</t>
+  </si>
+  <si>
+    <t>Dcost 33</t>
+  </si>
+  <si>
+    <t>DCost_34</t>
+  </si>
+  <si>
+    <t>Dcost 34</t>
+  </si>
+  <si>
+    <t>DCost_35</t>
+  </si>
+  <si>
+    <t>Dcost 35</t>
+  </si>
+  <si>
+    <t>DCost_36</t>
+  </si>
+  <si>
+    <t>Dcost 36</t>
+  </si>
+  <si>
+    <t>DCost_37</t>
+  </si>
+  <si>
+    <t>Dcost 37</t>
+  </si>
+  <si>
+    <t>DCost_38</t>
+  </si>
+  <si>
+    <t>Dcost 38</t>
+  </si>
+  <si>
+    <t>DCost_39</t>
+  </si>
+  <si>
+    <t>Dcost 39</t>
+  </si>
+  <si>
+    <t>DCost_40</t>
+  </si>
+  <si>
+    <t>Dcost 40</t>
+  </si>
+  <si>
+    <t>DCost_41</t>
+  </si>
+  <si>
+    <t>Dcost 41</t>
+  </si>
+  <si>
+    <t>DCost_42</t>
+  </si>
+  <si>
+    <t>Dcost 42</t>
+  </si>
+  <si>
+    <t>DCost_43</t>
+  </si>
+  <si>
+    <t>Dcost 43</t>
+  </si>
+  <si>
+    <t>DCost_44</t>
+  </si>
+  <si>
+    <t>Dcost 44</t>
+  </si>
+  <si>
+    <t>DCost_45</t>
+  </si>
+  <si>
+    <t>Dcost 45</t>
+  </si>
+  <si>
+    <t>DCost_46</t>
+  </si>
+  <si>
+    <t>Dcost 46</t>
+  </si>
+  <si>
+    <t>DCost_47</t>
+  </si>
+  <si>
+    <t>Dcost 47</t>
+  </si>
+  <si>
+    <t>DCost_48</t>
+  </si>
+  <si>
+    <t>Dcost 48</t>
+  </si>
+  <si>
+    <t>DCost_49</t>
+  </si>
+  <si>
+    <t>Dcost 49</t>
+  </si>
+  <si>
+    <t>DCost_50</t>
+  </si>
+  <si>
+    <t>Dcost 50</t>
+  </si>
+  <si>
+    <t>DCost_51</t>
+  </si>
+  <si>
+    <t>Dcost 51</t>
+  </si>
+  <si>
+    <t>DCost_52</t>
+  </si>
+  <si>
+    <t>Dcost 52</t>
+  </si>
+  <si>
+    <t>DCost_53</t>
+  </si>
+  <si>
+    <t>Dcost 53</t>
+  </si>
+  <si>
+    <t>DCost_54</t>
+  </si>
+  <si>
+    <t>Dcost 54</t>
+  </si>
+  <si>
+    <t>DCost_55</t>
+  </si>
+  <si>
+    <t>Dcost 55</t>
+  </si>
+  <si>
+    <t>DCost_56</t>
+  </si>
+  <si>
+    <t>Dcost 56</t>
+  </si>
+  <si>
+    <t>DCost_57</t>
+  </si>
+  <si>
+    <t>Dcost 57</t>
+  </si>
+  <si>
+    <t>DCost_58</t>
+  </si>
+  <si>
+    <t>Dcost 58</t>
+  </si>
+  <si>
+    <t>DCost_59</t>
+  </si>
+  <si>
+    <t>Dcost 59</t>
+  </si>
+  <si>
+    <t>DCost_60</t>
+  </si>
+  <si>
+    <t>Dcost 60</t>
+  </si>
+  <si>
+    <t>DCost_61</t>
+  </si>
+  <si>
+    <t>Dcost 61</t>
+  </si>
+  <si>
+    <t>DCost_62</t>
+  </si>
+  <si>
+    <t>Dcost 62</t>
+  </si>
+  <si>
+    <t>DCost_63</t>
+  </si>
+  <si>
+    <t>Dcost 63</t>
+  </si>
+  <si>
+    <t>DCost_64</t>
+  </si>
+  <si>
+    <t>Dcost 64</t>
+  </si>
+  <si>
+    <t>DCost_65</t>
+  </si>
+  <si>
+    <t>Dcost 65</t>
+  </si>
+  <si>
+    <t>DCost_66</t>
+  </si>
+  <si>
+    <t>Dcost 66</t>
+  </si>
+  <si>
+    <t>DCost_67</t>
+  </si>
+  <si>
+    <t>Dcost 67</t>
+  </si>
+  <si>
+    <t>DCost_68</t>
+  </si>
+  <si>
+    <t>Dcost 68</t>
+  </si>
+  <si>
+    <t>DCost_69</t>
+  </si>
+  <si>
+    <t>Dcost 69</t>
+  </si>
+  <si>
+    <t>DCost_70</t>
+  </si>
+  <si>
+    <t>Dcost 70</t>
+  </si>
+  <si>
+    <t>DCost_71</t>
+  </si>
+  <si>
+    <t>Dcost 71</t>
+  </si>
+  <si>
+    <t>DCost_72</t>
+  </si>
+  <si>
+    <t>Dcost 72</t>
+  </si>
+  <si>
+    <t>DCost_73</t>
+  </si>
+  <si>
+    <t>Dcost 73</t>
+  </si>
+  <si>
+    <t>DCost_74</t>
+  </si>
+  <si>
+    <t>Dcost 74</t>
+  </si>
+  <si>
+    <t>DCost_75</t>
+  </si>
+  <si>
+    <t>Dcost 75</t>
+  </si>
+  <si>
+    <t>DCost_76</t>
+  </si>
+  <si>
+    <t>Dcost 76</t>
+  </si>
+  <si>
+    <t>DCost_77</t>
+  </si>
+  <si>
+    <t>Dcost 77</t>
+  </si>
+  <si>
+    <t>DCost_78</t>
+  </si>
+  <si>
+    <t>Dcost 78</t>
+  </si>
+  <si>
+    <t>DCost_79</t>
+  </si>
+  <si>
+    <t>Dcost 79</t>
+  </si>
+  <si>
+    <t>DCost_80</t>
+  </si>
+  <si>
+    <t>Dcost 80</t>
+  </si>
+  <si>
+    <t>DCost_81</t>
+  </si>
+  <si>
+    <t>Dcost 81</t>
+  </si>
+  <si>
+    <t>DCost_82</t>
+  </si>
+  <si>
+    <t>Dcost 82</t>
+  </si>
+  <si>
+    <t>DCost_83</t>
+  </si>
+  <si>
+    <t>Dcost 83</t>
+  </si>
+  <si>
+    <t>DCost_84</t>
+  </si>
+  <si>
+    <t>Dcost 84</t>
+  </si>
+  <si>
+    <t>DCost_85</t>
+  </si>
+  <si>
+    <t>Dcost 85</t>
+  </si>
+  <si>
+    <t>DCost_86</t>
+  </si>
+  <si>
+    <t>Dcost 86</t>
+  </si>
+  <si>
+    <t>DCost_87</t>
+  </si>
+  <si>
+    <t>Dcost 87</t>
+  </si>
+  <si>
+    <t>DCost_88</t>
+  </si>
+  <si>
+    <t>Dcost 88</t>
+  </si>
+  <si>
+    <t>DCost_89</t>
+  </si>
+  <si>
+    <t>Dcost 89</t>
+  </si>
+  <si>
+    <t>DCost_90</t>
+  </si>
+  <si>
+    <t>Dcost 90</t>
+  </si>
+  <si>
+    <t>DCost_91</t>
+  </si>
+  <si>
+    <t>Dcost 91</t>
+  </si>
+  <si>
+    <t>DCost_92</t>
+  </si>
+  <si>
+    <t>Dcost 92</t>
+  </si>
+  <si>
+    <t>DCost_93</t>
+  </si>
+  <si>
+    <t>Dcost 93</t>
+  </si>
+  <si>
+    <t>DCost_94</t>
+  </si>
+  <si>
+    <t>Dcost 94</t>
+  </si>
+  <si>
+    <t>DCost_95</t>
+  </si>
+  <si>
+    <t>Dcost 95</t>
+  </si>
+  <si>
+    <t>DCost_96</t>
+  </si>
+  <si>
+    <t>Dcost 96</t>
+  </si>
+  <si>
+    <t>DCost_97</t>
+  </si>
+  <si>
+    <t>Dcost 97</t>
+  </si>
+  <si>
+    <t>DCost_98</t>
+  </si>
+  <si>
+    <t>Dcost 98</t>
+  </si>
+  <si>
+    <t>DCost_99</t>
+  </si>
+  <si>
+    <t>Dcost 99</t>
+  </si>
+  <si>
+    <t>DCost_100</t>
+  </si>
+  <si>
+    <t>Dcost 100</t>
+  </si>
+  <si>
+    <t>DCost_101</t>
+  </si>
+  <si>
+    <t>Dcost 101</t>
+  </si>
+  <si>
+    <t>DCost_102</t>
+  </si>
+  <si>
+    <t>Dcost 102</t>
   </si>
 </sst>
 </file>
@@ -3923,7 +4542,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3972,11 +4591,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4003,6 +4633,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4378,10 +5011,1076 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>917</v>
+      </c>
+      <c r="E2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2720.6068399999999</v>
+      </c>
+      <c r="K2">
+        <v>1414665.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>888</v>
+      </c>
+      <c r="E3" t="s">
+        <v>929</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2537.10833</v>
+      </c>
+      <c r="K3">
+        <v>1135697.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>889</v>
+      </c>
+      <c r="E4" t="s">
+        <v>930</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2427.9804100000001</v>
+      </c>
+      <c r="K4">
+        <v>988921.33600000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>891</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E5" t="s">
+        <v>931</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1802.95805</v>
+      </c>
+      <c r="K5">
+        <v>793691.87399999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>891</v>
+      </c>
+      <c r="E6" t="s">
+        <v>932</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2278.4323599999998</v>
+      </c>
+      <c r="K6">
+        <v>522194.75900000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>893</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>892</v>
+      </c>
+      <c r="E7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>446.86514699999998</v>
+      </c>
+      <c r="K7">
+        <v>3914081.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>893</v>
+      </c>
+      <c r="E8" t="s">
+        <v>934</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2472.6170499999998</v>
+      </c>
+      <c r="K8">
+        <v>1172139.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>895</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>894</v>
+      </c>
+      <c r="E9" t="s">
+        <v>935</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>895</v>
+      </c>
+      <c r="E10" t="s">
+        <v>936</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>897</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>896</v>
+      </c>
+      <c r="E11" t="s">
+        <v>937</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2510.7340100000001</v>
+      </c>
+      <c r="K11">
+        <v>1216861.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>898</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>897</v>
+      </c>
+      <c r="E12" t="s">
+        <v>938</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1770.78988</v>
+      </c>
+      <c r="K12">
+        <v>468111.09899999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>899</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>898</v>
+      </c>
+      <c r="E13" t="s">
+        <v>939</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2231.40013</v>
+      </c>
+      <c r="K13">
+        <v>404700.55200000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>900</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>899</v>
+      </c>
+      <c r="E14" t="s">
+        <v>940</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2108.5790099999999</v>
+      </c>
+      <c r="K14">
+        <v>1761828.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>901</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>900</v>
+      </c>
+      <c r="E15" t="s">
+        <v>941</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1092.59635</v>
+      </c>
+      <c r="K15">
+        <v>1060846.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>902</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>901</v>
+      </c>
+      <c r="E16" t="s">
+        <v>942</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1277.97081</v>
+      </c>
+      <c r="K16">
+        <v>410320.40899999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>903</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>902</v>
+      </c>
+      <c r="E17" t="s">
+        <v>943</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1120967.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>904</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>903</v>
+      </c>
+      <c r="E18" t="s">
+        <v>944</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1527.5318</v>
+      </c>
+      <c r="K18">
+        <v>411349.32099999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>905</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>904</v>
+      </c>
+      <c r="E19" t="s">
+        <v>945</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>480.53730200000001</v>
+      </c>
+      <c r="K19">
+        <v>1083200.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>906</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>905</v>
+      </c>
+      <c r="E20" t="s">
+        <v>946</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>198.50506100000001</v>
+      </c>
+      <c r="K20">
+        <v>2419864.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>907</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>906</v>
+      </c>
+      <c r="E21" t="s">
+        <v>947</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1520.9026799999999</v>
+      </c>
+      <c r="K21">
+        <v>439414.64600000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>908</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>907</v>
+      </c>
+      <c r="E22" t="s">
+        <v>948</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2486.1268799999998</v>
+      </c>
+      <c r="K22">
+        <v>444051.33899999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>909</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>908</v>
+      </c>
+      <c r="E23" t="s">
+        <v>949</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>390278.158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>910</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>909</v>
+      </c>
+      <c r="E24" t="s">
+        <v>950</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>606478.34899999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>911</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>910</v>
+      </c>
+      <c r="E25" t="s">
+        <v>951</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2461.9512500000001</v>
+      </c>
+      <c r="K25">
+        <v>336529.32799999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>912</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>911</v>
+      </c>
+      <c r="E26" t="s">
+        <v>952</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1911.5309</v>
+      </c>
+      <c r="K26">
+        <v>800071.04200000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>913</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>912</v>
+      </c>
+      <c r="E27" t="s">
+        <v>953</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2591.48675</v>
+      </c>
+      <c r="K27">
+        <v>497107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>914</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>913</v>
+      </c>
+      <c r="E28" t="s">
+        <v>954</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2433.4967799999999</v>
+      </c>
+      <c r="K28">
+        <v>477408.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>915</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>914</v>
+      </c>
+      <c r="E29" t="s">
+        <v>955</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2618.3388300000001</v>
+      </c>
+      <c r="K29">
+        <v>692103.15300000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>916</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>915</v>
+      </c>
+      <c r="E30" t="s">
+        <v>956</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2555.9399199999998</v>
+      </c>
+      <c r="K30">
+        <v>696829.84600000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC52E22A-F484-AB41-97FD-4D4278B36B97}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -4821,7 +6520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952A19C-9EA1-FC4B-A8A3-DF4245CBA313}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5189,7 +6888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186F18F-12EC-6F4B-A764-409E6D489D0B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -5297,7 +6996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDD8DA4-A9E0-5D45-8125-C41E764F6492}">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -5822,7 +7521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EF9F85-5A8E-1249-B9F0-7234C911A625}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -5918,7 +7617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB38A29-B98B-D544-BC97-A4C3D6A69D76}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -6429,7 +8128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831E3704-B795-2045-82FE-9FBF4077B24C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -6525,7 +8224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6DFDF-13C8-0E45-8899-0962CFE97EA1}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -14438,16 +16137,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -14481,8 +16180,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="11" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14513,8 +16215,11 @@
       <c r="J2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14545,8 +16250,11 @@
       <c r="J3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14577,8 +16285,11 @@
       <c r="J4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14609,8 +16320,11 @@
       <c r="J5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14641,8 +16355,11 @@
       <c r="J6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14673,8 +16390,11 @@
       <c r="J7">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -14705,8 +16425,11 @@
       <c r="J8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14737,8 +16460,11 @@
       <c r="J9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14769,8 +16495,11 @@
       <c r="J10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14801,8 +16530,11 @@
       <c r="J11">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14833,8 +16565,11 @@
       <c r="J12">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14865,8 +16600,11 @@
       <c r="J13">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14897,8 +16635,11 @@
       <c r="J14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -14929,8 +16670,11 @@
       <c r="J15">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -14961,8 +16705,11 @@
       <c r="J16">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -14993,8 +16740,11 @@
       <c r="J17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -15025,8 +16775,11 @@
       <c r="J18">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -15057,8 +16810,11 @@
       <c r="J19">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -15089,8 +16845,11 @@
       <c r="J20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -15121,8 +16880,11 @@
       <c r="J21">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -15153,8 +16915,11 @@
       <c r="J22">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -15185,8 +16950,11 @@
       <c r="J23">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -15217,8 +16985,11 @@
       <c r="J24">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -15249,8 +17020,11 @@
       <c r="J25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -15281,8 +17055,11 @@
       <c r="J26">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15313,8 +17090,11 @@
       <c r="J27">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -15345,8 +17125,11 @@
       <c r="J28">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -15377,8 +17160,11 @@
       <c r="J29">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -15409,8 +17195,11 @@
       <c r="J30">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -15441,8 +17230,11 @@
       <c r="J31">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -15473,8 +17265,11 @@
       <c r="J32">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -15505,8 +17300,11 @@
       <c r="J33">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -15537,8 +17335,11 @@
       <c r="J34">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -15569,8 +17370,11 @@
       <c r="J35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -15601,8 +17405,11 @@
       <c r="J36">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -15633,8 +17440,11 @@
       <c r="J37">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -15665,8 +17475,11 @@
       <c r="J38">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -15697,8 +17510,11 @@
       <c r="J39">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -15729,8 +17545,11 @@
       <c r="J40">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -15761,8 +17580,11 @@
       <c r="J41">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -15793,8 +17615,11 @@
       <c r="J42">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -15825,8 +17650,11 @@
       <c r="J43">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -15857,8 +17685,11 @@
       <c r="J44">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -15889,8 +17720,11 @@
       <c r="J45">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -15921,8 +17755,11 @@
       <c r="J46">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -15953,8 +17790,11 @@
       <c r="J47">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -15985,8 +17825,11 @@
       <c r="J48">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -16017,8 +17860,11 @@
       <c r="J49">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -16049,8 +17895,11 @@
       <c r="J50">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -16081,8 +17930,11 @@
       <c r="J51">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -16113,8 +17965,11 @@
       <c r="J52">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -16145,8 +18000,11 @@
       <c r="J53">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -16177,8 +18035,11 @@
       <c r="J54">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -16209,8 +18070,11 @@
       <c r="J55">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -16241,8 +18105,11 @@
       <c r="J56">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -16273,8 +18140,11 @@
       <c r="J57">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -16305,8 +18175,11 @@
       <c r="J58">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -16337,8 +18210,11 @@
       <c r="J59">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -16369,8 +18245,11 @@
       <c r="J60">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -16401,8 +18280,11 @@
       <c r="J61">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -16433,8 +18315,11 @@
       <c r="J62">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -16465,8 +18350,11 @@
       <c r="J63">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -16497,8 +18385,11 @@
       <c r="J64">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -16529,8 +18420,11 @@
       <c r="J65">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -16561,8 +18455,11 @@
       <c r="J66">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -16593,8 +18490,11 @@
       <c r="J67">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -16625,8 +18525,11 @@
       <c r="J68">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -16657,8 +18560,11 @@
       <c r="J69">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -16689,8 +18595,11 @@
       <c r="J70">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -16721,8 +18630,11 @@
       <c r="J71">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -16753,8 +18665,11 @@
       <c r="J72">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -16785,8 +18700,11 @@
       <c r="J73">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -16817,8 +18735,11 @@
       <c r="J74">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -16849,8 +18770,11 @@
       <c r="J75">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -16881,8 +18805,11 @@
       <c r="J76">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -16913,8 +18840,11 @@
       <c r="J77">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -16945,8 +18875,11 @@
       <c r="J78">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -16977,8 +18910,11 @@
       <c r="J79">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -17009,8 +18945,11 @@
       <c r="J80">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -17041,8 +18980,11 @@
       <c r="J81">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -17073,8 +19015,11 @@
       <c r="J82">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -17105,8 +19050,11 @@
       <c r="J83">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -17137,8 +19085,11 @@
       <c r="J84">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -17169,8 +19120,11 @@
       <c r="J85">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -17201,8 +19155,11 @@
       <c r="J86">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -17233,8 +19190,11 @@
       <c r="J87">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -17265,8 +19225,11 @@
       <c r="J88">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17297,8 +19260,11 @@
       <c r="J89">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17329,8 +19295,11 @@
       <c r="J90">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17361,8 +19330,11 @@
       <c r="J91">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17393,8 +19365,11 @@
       <c r="J92">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17425,8 +19400,11 @@
       <c r="J93">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17457,8 +19435,11 @@
       <c r="J94">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17489,8 +19470,11 @@
       <c r="J95">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17521,8 +19505,11 @@
       <c r="J96">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17553,8 +19540,11 @@
       <c r="J97">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -17585,8 +19575,11 @@
       <c r="J98">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -17617,8 +19610,11 @@
       <c r="J99">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -17649,8 +19645,11 @@
       <c r="J100">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -17681,8 +19680,11 @@
       <c r="J101">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -17713,8 +19715,11 @@
       <c r="J102">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -17744,6 +19749,9 @@
       </c>
       <c r="J103">
         <v>0.8</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17753,6 +19761,2082 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332ECC39-105C-0849-9DE3-4D1644EAE70D}">
+  <dimension ref="A1:F103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E32" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E34" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E53" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E55" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E56" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E57" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E60" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E61" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E62" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E63" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E65" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E66" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E67" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E69" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E70" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E71" t="s">
+        <v>240</v>
+      </c>
+      <c r="F71" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E73" t="s">
+        <v>242</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E74" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E75" t="s">
+        <v>244</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E76" t="s">
+        <v>245</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E77" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E78" t="s">
+        <v>247</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E79" t="s">
+        <v>248</v>
+      </c>
+      <c r="F79" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E80" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E81" t="s">
+        <v>250</v>
+      </c>
+      <c r="F81" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E82" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E84" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E85" t="s">
+        <v>254</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E86" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E87" t="s">
+        <v>256</v>
+      </c>
+      <c r="F87" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E88" t="s">
+        <v>257</v>
+      </c>
+      <c r="F88" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E89" t="s">
+        <v>258</v>
+      </c>
+      <c r="F89" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E90" t="s">
+        <v>259</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E91" t="s">
+        <v>260</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E92" t="s">
+        <v>261</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E93" t="s">
+        <v>262</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E94" t="s">
+        <v>263</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E95" t="s">
+        <v>264</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E96" t="s">
+        <v>265</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E97" t="s">
+        <v>266</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E99" t="s">
+        <v>268</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E100" t="s">
+        <v>269</v>
+      </c>
+      <c r="F100" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E101" t="s">
+        <v>270</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>100</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E102" t="s">
+        <v>271</v>
+      </c>
+      <c r="F102" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>101</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E103" t="s">
+        <v>272</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
@@ -20785,7 +24869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
@@ -21015,7 +25099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
@@ -22343,7 +26427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC264"/>
   <sheetViews>
@@ -43488,7 +47572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -43559,1070 +47643,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>917</v>
-      </c>
-      <c r="E2" t="s">
-        <v>928</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>2720.6068399999999</v>
-      </c>
-      <c r="K2">
-        <v>1414665.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>888</v>
-      </c>
-      <c r="E3" t="s">
-        <v>929</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2537.10833</v>
-      </c>
-      <c r="K3">
-        <v>1135697.47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>890</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>889</v>
-      </c>
-      <c r="E4" t="s">
-        <v>930</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>2427.9804100000001</v>
-      </c>
-      <c r="K4">
-        <v>988921.33600000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>891</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>890</v>
-      </c>
-      <c r="E5" t="s">
-        <v>931</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1802.95805</v>
-      </c>
-      <c r="K5">
-        <v>793691.87399999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>892</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>891</v>
-      </c>
-      <c r="E6" t="s">
-        <v>932</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2278.4323599999998</v>
-      </c>
-      <c r="K6">
-        <v>522194.75900000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>893</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>892</v>
-      </c>
-      <c r="E7" t="s">
-        <v>933</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>446.86514699999998</v>
-      </c>
-      <c r="K7">
-        <v>3914081.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>894</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>893</v>
-      </c>
-      <c r="E8" t="s">
-        <v>934</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>2472.6170499999998</v>
-      </c>
-      <c r="K8">
-        <v>1172139.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>895</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>894</v>
-      </c>
-      <c r="E9" t="s">
-        <v>935</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>895</v>
-      </c>
-      <c r="E10" t="s">
-        <v>936</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>897</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>896</v>
-      </c>
-      <c r="E11" t="s">
-        <v>937</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>2510.7340100000001</v>
-      </c>
-      <c r="K11">
-        <v>1216861.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>898</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>897</v>
-      </c>
-      <c r="E12" t="s">
-        <v>938</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1770.78988</v>
-      </c>
-      <c r="K12">
-        <v>468111.09899999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>899</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>898</v>
-      </c>
-      <c r="E13" t="s">
-        <v>939</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>2231.40013</v>
-      </c>
-      <c r="K13">
-        <v>404700.55200000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>900</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>899</v>
-      </c>
-      <c r="E14" t="s">
-        <v>940</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>2108.5790099999999</v>
-      </c>
-      <c r="K14">
-        <v>1761828.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>901</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>900</v>
-      </c>
-      <c r="E15" t="s">
-        <v>941</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1092.59635</v>
-      </c>
-      <c r="K15">
-        <v>1060846.68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>902</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>901</v>
-      </c>
-      <c r="E16" t="s">
-        <v>942</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1277.97081</v>
-      </c>
-      <c r="K16">
-        <v>410320.40899999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>903</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>902</v>
-      </c>
-      <c r="E17" t="s">
-        <v>943</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1120967.29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>904</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>903</v>
-      </c>
-      <c r="E18" t="s">
-        <v>944</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1527.5318</v>
-      </c>
-      <c r="K18">
-        <v>411349.32099999988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>905</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>904</v>
-      </c>
-      <c r="E19" t="s">
-        <v>945</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>480.53730200000001</v>
-      </c>
-      <c r="K19">
-        <v>1083200.19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>906</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>905</v>
-      </c>
-      <c r="E20" t="s">
-        <v>946</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>198.50506100000001</v>
-      </c>
-      <c r="K20">
-        <v>2419864.52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>907</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>906</v>
-      </c>
-      <c r="E21" t="s">
-        <v>947</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1520.9026799999999</v>
-      </c>
-      <c r="K21">
-        <v>439414.64600000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>908</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>907</v>
-      </c>
-      <c r="E22" t="s">
-        <v>948</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>2486.1268799999998</v>
-      </c>
-      <c r="K22">
-        <v>444051.33899999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>909</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>908</v>
-      </c>
-      <c r="E23" t="s">
-        <v>949</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>390278.158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>910</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>909</v>
-      </c>
-      <c r="E24" t="s">
-        <v>950</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>606478.34899999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>911</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>910</v>
-      </c>
-      <c r="E25" t="s">
-        <v>951</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>2461.9512500000001</v>
-      </c>
-      <c r="K25">
-        <v>336529.32799999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>912</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>911</v>
-      </c>
-      <c r="E26" t="s">
-        <v>952</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1911.5309</v>
-      </c>
-      <c r="K26">
-        <v>800071.04200000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>913</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>912</v>
-      </c>
-      <c r="E27" t="s">
-        <v>953</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>2591.48675</v>
-      </c>
-      <c r="K27">
-        <v>497107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>914</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>913</v>
-      </c>
-      <c r="E28" t="s">
-        <v>954</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>2433.4967799999999</v>
-      </c>
-      <c r="K28">
-        <v>477408.99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>915</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>914</v>
-      </c>
-      <c r="E29" t="s">
-        <v>955</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>2618.3388300000001</v>
-      </c>
-      <c r="K29">
-        <v>692103.15300000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>916</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>915</v>
-      </c>
-      <c r="E30" t="s">
-        <v>956</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>2555.9399199999998</v>
-      </c>
-      <c r="K30">
-        <v>696829.84600000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ams/cases/wecc/wecc_uced.xlsx
+++ b/ams/cases/wecc/wecc_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/wecc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/wecc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90797D85-AC0E-494B-B5D9-2165D1F932A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F434E577-7553-CD42-B0AA-6FCA383D27B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId6"/>
     <sheet name="Shunt" sheetId="5" r:id="rId7"/>
     <sheet name="Line" sheetId="6" r:id="rId8"/>
-    <sheet name="Region" sheetId="7" r:id="rId9"/>
+    <sheet name="Zone" sheetId="7" r:id="rId9"/>
     <sheet name="GCost" sheetId="8" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="10" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="11" r:id="rId12"/>
@@ -4634,7 +4634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -19764,7 +19764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332ECC39-105C-0849-9DE3-4D1644EAE70D}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -47576,7 +47576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
